--- a/source_data_files_ncomms/SourceDataFigure2C.xlsx
+++ b/source_data_files_ncomms/SourceDataFigure2C.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="174">
   <si>
     <t>latency</t>
   </si>
@@ -268,6 +268,138 @@
   </si>
   <si>
     <t>condition</t>
+  </si>
+  <si>
+    <t>duration</t>
+  </si>
+  <si>
+    <t>region</t>
+  </si>
+  <si>
+    <t>EC</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>EC</t>
+  </si>
+  <si>
+    <t>HC</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>HC</t>
+  </si>
+  <si>
+    <t>PHC</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>HC</t>
+  </si>
+  <si>
+    <t>PHC</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>EC</t>
+  </si>
+  <si>
+    <t>PHC</t>
+  </si>
+  <si>
+    <t>EC</t>
+  </si>
+  <si>
+    <t>HC</t>
+  </si>
+  <si>
+    <t>PHC</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>PHC</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>PHC</t>
+  </si>
+  <si>
+    <t>EC</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>EC</t>
+  </si>
+  <si>
+    <t>HC</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>HC</t>
+  </si>
+  <si>
+    <t>PHC</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>HC</t>
+  </si>
+  <si>
+    <t>PHC</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>EC</t>
+  </si>
+  <si>
+    <t>PHC</t>
+  </si>
+  <si>
+    <t>EC</t>
+  </si>
+  <si>
+    <t>HC</t>
+  </si>
+  <si>
+    <t>PHC</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>PHC</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>PHC</t>
+  </si>
+  <si>
+    <t>condition</t>
+  </si>
+  <si>
+    <t>cellid</t>
   </si>
   <si>
     <t>duration</t>
@@ -459,21 +591,21 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>86</v>
+        <v>130</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>127</v>
+        <v>171</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>128</v>
+        <v>172</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>129</v>
+        <v>173</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>87</v>
+        <v>131</v>
       </c>
       <c r="B2" s="0">
         <v>1</v>
@@ -487,7 +619,7 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>87</v>
+        <v>131</v>
       </c>
       <c r="B3" s="0">
         <v>1</v>
@@ -501,7 +633,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>88</v>
+        <v>132</v>
       </c>
       <c r="B4" s="0">
         <v>1</v>
@@ -515,7 +647,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>88</v>
+        <v>132</v>
       </c>
       <c r="B5" s="0">
         <v>1</v>
@@ -529,7 +661,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>89</v>
+        <v>133</v>
       </c>
       <c r="B6" s="0">
         <v>1</v>
@@ -543,7 +675,7 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>90</v>
+        <v>134</v>
       </c>
       <c r="B7" s="0">
         <v>1</v>
@@ -557,7 +689,7 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>90</v>
+        <v>134</v>
       </c>
       <c r="B8" s="0">
         <v>1</v>
@@ -571,7 +703,7 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>91</v>
+        <v>135</v>
       </c>
       <c r="B9" s="0">
         <v>1</v>
@@ -585,7 +717,7 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>91</v>
+        <v>135</v>
       </c>
       <c r="B10" s="0">
         <v>1</v>
@@ -599,7 +731,7 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>91</v>
+        <v>135</v>
       </c>
       <c r="B11" s="0">
         <v>1</v>
@@ -613,7 +745,7 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>91</v>
+        <v>135</v>
       </c>
       <c r="B12" s="0">
         <v>1</v>
@@ -627,7 +759,7 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>91</v>
+        <v>135</v>
       </c>
       <c r="B13" s="0">
         <v>1</v>
@@ -641,7 +773,7 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>92</v>
+        <v>136</v>
       </c>
       <c r="B14" s="0">
         <v>1</v>
@@ -655,7 +787,7 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>93</v>
+        <v>137</v>
       </c>
       <c r="B15" s="0">
         <v>1</v>
@@ -669,7 +801,7 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>94</v>
+        <v>138</v>
       </c>
       <c r="B16" s="0">
         <v>1</v>
@@ -683,7 +815,7 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>95</v>
+        <v>139</v>
       </c>
       <c r="B17" s="0">
         <v>1</v>
@@ -697,7 +829,7 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>96</v>
+        <v>140</v>
       </c>
       <c r="B18" s="0">
         <v>1</v>
@@ -711,7 +843,7 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>96</v>
+        <v>140</v>
       </c>
       <c r="B19" s="0">
         <v>1</v>
@@ -725,7 +857,7 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>96</v>
+        <v>140</v>
       </c>
       <c r="B20" s="0">
         <v>1</v>
@@ -739,7 +871,7 @@
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>97</v>
+        <v>141</v>
       </c>
       <c r="B21" s="0">
         <v>1</v>
@@ -753,7 +885,7 @@
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>97</v>
+        <v>141</v>
       </c>
       <c r="B22" s="0">
         <v>1</v>
@@ -767,7 +899,7 @@
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>97</v>
+        <v>141</v>
       </c>
       <c r="B23" s="0">
         <v>1</v>
@@ -781,7 +913,7 @@
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>97</v>
+        <v>141</v>
       </c>
       <c r="B24" s="0">
         <v>1</v>
@@ -795,7 +927,7 @@
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>98</v>
+        <v>142</v>
       </c>
       <c r="B25" s="0">
         <v>1</v>
@@ -809,7 +941,7 @@
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>98</v>
+        <v>142</v>
       </c>
       <c r="B26" s="0">
         <v>1</v>
@@ -823,7 +955,7 @@
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
-        <v>98</v>
+        <v>142</v>
       </c>
       <c r="B27" s="0">
         <v>1</v>
@@ -837,7 +969,7 @@
     </row>
     <row r="28">
       <c r="A28" s="0" t="s">
-        <v>98</v>
+        <v>142</v>
       </c>
       <c r="B28" s="0">
         <v>1</v>
@@ -851,7 +983,7 @@
     </row>
     <row r="29">
       <c r="A29" s="0" t="s">
-        <v>99</v>
+        <v>143</v>
       </c>
       <c r="B29" s="0">
         <v>1</v>
@@ -865,7 +997,7 @@
     </row>
     <row r="30">
       <c r="A30" s="0" t="s">
-        <v>99</v>
+        <v>143</v>
       </c>
       <c r="B30" s="0">
         <v>1</v>
@@ -879,7 +1011,7 @@
     </row>
     <row r="31">
       <c r="A31" s="0" t="s">
-        <v>99</v>
+        <v>143</v>
       </c>
       <c r="B31" s="0">
         <v>1</v>
@@ -893,7 +1025,7 @@
     </row>
     <row r="32">
       <c r="A32" s="0" t="s">
-        <v>99</v>
+        <v>143</v>
       </c>
       <c r="B32" s="0">
         <v>1</v>
@@ -907,7 +1039,7 @@
     </row>
     <row r="33">
       <c r="A33" s="0" t="s">
-        <v>99</v>
+        <v>143</v>
       </c>
       <c r="B33" s="0">
         <v>1</v>
@@ -921,7 +1053,7 @@
     </row>
     <row r="34">
       <c r="A34" s="0" t="s">
-        <v>100</v>
+        <v>144</v>
       </c>
       <c r="B34" s="0">
         <v>1</v>
@@ -935,7 +1067,7 @@
     </row>
     <row r="35">
       <c r="A35" s="0" t="s">
-        <v>101</v>
+        <v>145</v>
       </c>
       <c r="B35" s="0">
         <v>1</v>
@@ -949,7 +1081,7 @@
     </row>
     <row r="36">
       <c r="A36" s="0" t="s">
-        <v>102</v>
+        <v>146</v>
       </c>
       <c r="B36" s="0">
         <v>1</v>
@@ -963,7 +1095,7 @@
     </row>
     <row r="37">
       <c r="A37" s="0" t="s">
-        <v>103</v>
+        <v>147</v>
       </c>
       <c r="B37" s="0">
         <v>1</v>
@@ -977,7 +1109,7 @@
     </row>
     <row r="38">
       <c r="A38" s="0" t="s">
-        <v>103</v>
+        <v>147</v>
       </c>
       <c r="B38" s="0">
         <v>1</v>
@@ -991,7 +1123,7 @@
     </row>
     <row r="39">
       <c r="A39" s="0" t="s">
-        <v>103</v>
+        <v>147</v>
       </c>
       <c r="B39" s="0">
         <v>1</v>
@@ -1005,7 +1137,7 @@
     </row>
     <row r="40">
       <c r="A40" s="0" t="s">
-        <v>104</v>
+        <v>148</v>
       </c>
       <c r="B40" s="0">
         <v>1</v>
@@ -1019,7 +1151,7 @@
     </row>
     <row r="41">
       <c r="A41" s="0" t="s">
-        <v>105</v>
+        <v>149</v>
       </c>
       <c r="B41" s="0">
         <v>1</v>
@@ -1033,7 +1165,7 @@
     </row>
     <row r="42">
       <c r="A42" s="0" t="s">
-        <v>106</v>
+        <v>150</v>
       </c>
       <c r="B42" s="0">
         <v>1</v>
@@ -1047,7 +1179,7 @@
     </row>
     <row r="43">
       <c r="A43" s="0" t="s">
-        <v>106</v>
+        <v>150</v>
       </c>
       <c r="B43" s="0">
         <v>1</v>
@@ -1061,7 +1193,7 @@
     </row>
     <row r="44">
       <c r="A44" s="0" t="s">
-        <v>106</v>
+        <v>150</v>
       </c>
       <c r="B44" s="0">
         <v>1</v>
@@ -1075,7 +1207,7 @@
     </row>
     <row r="45">
       <c r="A45" s="0" t="s">
-        <v>107</v>
+        <v>151</v>
       </c>
       <c r="B45" s="0">
         <v>2</v>
@@ -1089,7 +1221,7 @@
     </row>
     <row r="46">
       <c r="A46" s="0" t="s">
-        <v>107</v>
+        <v>151</v>
       </c>
       <c r="B46" s="0">
         <v>2</v>
@@ -1103,7 +1235,7 @@
     </row>
     <row r="47">
       <c r="A47" s="0" t="s">
-        <v>108</v>
+        <v>152</v>
       </c>
       <c r="B47" s="0">
         <v>2</v>
@@ -1117,7 +1249,7 @@
     </row>
     <row r="48">
       <c r="A48" s="0" t="s">
-        <v>108</v>
+        <v>152</v>
       </c>
       <c r="B48" s="0">
         <v>2</v>
@@ -1131,7 +1263,7 @@
     </row>
     <row r="49">
       <c r="A49" s="0" t="s">
-        <v>109</v>
+        <v>153</v>
       </c>
       <c r="B49" s="0">
         <v>2</v>
@@ -1145,7 +1277,7 @@
     </row>
     <row r="50">
       <c r="A50" s="0" t="s">
-        <v>110</v>
+        <v>154</v>
       </c>
       <c r="B50" s="0">
         <v>2</v>
@@ -1159,7 +1291,7 @@
     </row>
     <row r="51">
       <c r="A51" s="0" t="s">
-        <v>110</v>
+        <v>154</v>
       </c>
       <c r="B51" s="0">
         <v>2</v>
@@ -1173,7 +1305,7 @@
     </row>
     <row r="52">
       <c r="A52" s="0" t="s">
-        <v>111</v>
+        <v>155</v>
       </c>
       <c r="B52" s="0">
         <v>2</v>
@@ -1187,7 +1319,7 @@
     </row>
     <row r="53">
       <c r="A53" s="0" t="s">
-        <v>111</v>
+        <v>155</v>
       </c>
       <c r="B53" s="0">
         <v>2</v>
@@ -1201,7 +1333,7 @@
     </row>
     <row r="54">
       <c r="A54" s="0" t="s">
-        <v>111</v>
+        <v>155</v>
       </c>
       <c r="B54" s="0">
         <v>2</v>
@@ -1215,7 +1347,7 @@
     </row>
     <row r="55">
       <c r="A55" s="0" t="s">
-        <v>111</v>
+        <v>155</v>
       </c>
       <c r="B55" s="0">
         <v>2</v>
@@ -1229,7 +1361,7 @@
     </row>
     <row r="56">
       <c r="A56" s="0" t="s">
-        <v>111</v>
+        <v>155</v>
       </c>
       <c r="B56" s="0">
         <v>2</v>
@@ -1243,7 +1375,7 @@
     </row>
     <row r="57">
       <c r="A57" s="0" t="s">
-        <v>112</v>
+        <v>156</v>
       </c>
       <c r="B57" s="0">
         <v>2</v>
@@ -1257,7 +1389,7 @@
     </row>
     <row r="58">
       <c r="A58" s="0" t="s">
-        <v>113</v>
+        <v>157</v>
       </c>
       <c r="B58" s="0">
         <v>2</v>
@@ -1271,7 +1403,7 @@
     </row>
     <row r="59">
       <c r="A59" s="0" t="s">
-        <v>114</v>
+        <v>158</v>
       </c>
       <c r="B59" s="0">
         <v>2</v>
@@ -1285,7 +1417,7 @@
     </row>
     <row r="60">
       <c r="A60" s="0" t="s">
-        <v>115</v>
+        <v>159</v>
       </c>
       <c r="B60" s="0">
         <v>2</v>
@@ -1299,7 +1431,7 @@
     </row>
     <row r="61">
       <c r="A61" s="0" t="s">
-        <v>116</v>
+        <v>160</v>
       </c>
       <c r="B61" s="0">
         <v>2</v>
@@ -1313,7 +1445,7 @@
     </row>
     <row r="62">
       <c r="A62" s="0" t="s">
-        <v>116</v>
+        <v>160</v>
       </c>
       <c r="B62" s="0">
         <v>2</v>
@@ -1327,7 +1459,7 @@
     </row>
     <row r="63">
       <c r="A63" s="0" t="s">
-        <v>116</v>
+        <v>160</v>
       </c>
       <c r="B63" s="0">
         <v>2</v>
@@ -1341,7 +1473,7 @@
     </row>
     <row r="64">
       <c r="A64" s="0" t="s">
-        <v>117</v>
+        <v>161</v>
       </c>
       <c r="B64" s="0">
         <v>2</v>
@@ -1355,7 +1487,7 @@
     </row>
     <row r="65">
       <c r="A65" s="0" t="s">
-        <v>117</v>
+        <v>161</v>
       </c>
       <c r="B65" s="0">
         <v>2</v>
@@ -1369,7 +1501,7 @@
     </row>
     <row r="66">
       <c r="A66" s="0" t="s">
-        <v>117</v>
+        <v>161</v>
       </c>
       <c r="B66" s="0">
         <v>2</v>
@@ -1383,7 +1515,7 @@
     </row>
     <row r="67">
       <c r="A67" s="0" t="s">
-        <v>117</v>
+        <v>161</v>
       </c>
       <c r="B67" s="0">
         <v>2</v>
@@ -1397,7 +1529,7 @@
     </row>
     <row r="68">
       <c r="A68" s="0" t="s">
-        <v>118</v>
+        <v>162</v>
       </c>
       <c r="B68" s="0">
         <v>2</v>
@@ -1411,7 +1543,7 @@
     </row>
     <row r="69">
       <c r="A69" s="0" t="s">
-        <v>118</v>
+        <v>162</v>
       </c>
       <c r="B69" s="0">
         <v>2</v>
@@ -1425,7 +1557,7 @@
     </row>
     <row r="70">
       <c r="A70" s="0" t="s">
-        <v>118</v>
+        <v>162</v>
       </c>
       <c r="B70" s="0">
         <v>2</v>
@@ -1439,7 +1571,7 @@
     </row>
     <row r="71">
       <c r="A71" s="0" t="s">
-        <v>118</v>
+        <v>162</v>
       </c>
       <c r="B71" s="0">
         <v>2</v>
@@ -1453,7 +1585,7 @@
     </row>
     <row r="72">
       <c r="A72" s="0" t="s">
-        <v>119</v>
+        <v>163</v>
       </c>
       <c r="B72" s="0">
         <v>2</v>
@@ -1467,7 +1599,7 @@
     </row>
     <row r="73">
       <c r="A73" s="0" t="s">
-        <v>119</v>
+        <v>163</v>
       </c>
       <c r="B73" s="0">
         <v>2</v>
@@ -1481,7 +1613,7 @@
     </row>
     <row r="74">
       <c r="A74" s="0" t="s">
-        <v>119</v>
+        <v>163</v>
       </c>
       <c r="B74" s="0">
         <v>2</v>
@@ -1495,7 +1627,7 @@
     </row>
     <row r="75">
       <c r="A75" s="0" t="s">
-        <v>119</v>
+        <v>163</v>
       </c>
       <c r="B75" s="0">
         <v>2</v>
@@ -1509,7 +1641,7 @@
     </row>
     <row r="76">
       <c r="A76" s="0" t="s">
-        <v>119</v>
+        <v>163</v>
       </c>
       <c r="B76" s="0">
         <v>2</v>
@@ -1523,7 +1655,7 @@
     </row>
     <row r="77">
       <c r="A77" s="0" t="s">
-        <v>120</v>
+        <v>164</v>
       </c>
       <c r="B77" s="0">
         <v>2</v>
@@ -1537,7 +1669,7 @@
     </row>
     <row r="78">
       <c r="A78" s="0" t="s">
-        <v>121</v>
+        <v>165</v>
       </c>
       <c r="B78" s="0">
         <v>2</v>
@@ -1551,7 +1683,7 @@
     </row>
     <row r="79">
       <c r="A79" s="0" t="s">
-        <v>122</v>
+        <v>166</v>
       </c>
       <c r="B79" s="0">
         <v>2</v>
@@ -1565,7 +1697,7 @@
     </row>
     <row r="80">
       <c r="A80" s="0" t="s">
-        <v>123</v>
+        <v>167</v>
       </c>
       <c r="B80" s="0">
         <v>2</v>
@@ -1579,7 +1711,7 @@
     </row>
     <row r="81">
       <c r="A81" s="0" t="s">
-        <v>123</v>
+        <v>167</v>
       </c>
       <c r="B81" s="0">
         <v>2</v>
@@ -1593,7 +1725,7 @@
     </row>
     <row r="82">
       <c r="A82" s="0" t="s">
-        <v>123</v>
+        <v>167</v>
       </c>
       <c r="B82" s="0">
         <v>2</v>
@@ -1607,7 +1739,7 @@
     </row>
     <row r="83">
       <c r="A83" s="0" t="s">
-        <v>124</v>
+        <v>168</v>
       </c>
       <c r="B83" s="0">
         <v>2</v>
@@ -1621,7 +1753,7 @@
     </row>
     <row r="84">
       <c r="A84" s="0" t="s">
-        <v>125</v>
+        <v>169</v>
       </c>
       <c r="B84" s="0">
         <v>2</v>
@@ -1635,7 +1767,7 @@
     </row>
     <row r="85">
       <c r="A85" s="0" t="s">
-        <v>126</v>
+        <v>170</v>
       </c>
       <c r="B85" s="0">
         <v>2</v>
@@ -1649,7 +1781,7 @@
     </row>
     <row r="86">
       <c r="A86" s="0" t="s">
-        <v>126</v>
+        <v>170</v>
       </c>
       <c r="B86" s="0">
         <v>2</v>
@@ -1663,7 +1795,7 @@
     </row>
     <row r="87">
       <c r="A87" s="0" t="s">
-        <v>126</v>
+        <v>170</v>
       </c>
       <c r="B87" s="0">
         <v>2</v>

--- a/source_data_files_ncomms/SourceDataFigure2C.xlsx
+++ b/source_data_files_ncomms/SourceDataFigure2C.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1206" uniqueCount="542">
   <si>
     <t>latency</t>
   </si>
@@ -268,6 +268,1110 @@
   </si>
   <si>
     <t>condition</t>
+  </si>
+  <si>
+    <t>duration</t>
+  </si>
+  <si>
+    <t>region</t>
+  </si>
+  <si>
+    <t>EC</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>EC</t>
+  </si>
+  <si>
+    <t>HC</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>HC</t>
+  </si>
+  <si>
+    <t>PHC</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>HC</t>
+  </si>
+  <si>
+    <t>PHC</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>EC</t>
+  </si>
+  <si>
+    <t>PHC</t>
+  </si>
+  <si>
+    <t>EC</t>
+  </si>
+  <si>
+    <t>HC</t>
+  </si>
+  <si>
+    <t>PHC</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>PHC</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>PHC</t>
+  </si>
+  <si>
+    <t>EC</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>EC</t>
+  </si>
+  <si>
+    <t>HC</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>HC</t>
+  </si>
+  <si>
+    <t>PHC</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>HC</t>
+  </si>
+  <si>
+    <t>PHC</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>EC</t>
+  </si>
+  <si>
+    <t>PHC</t>
+  </si>
+  <si>
+    <t>EC</t>
+  </si>
+  <si>
+    <t>HC</t>
+  </si>
+  <si>
+    <t>PHC</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>PHC</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>PHC</t>
+  </si>
+  <si>
+    <t>condition</t>
+  </si>
+  <si>
+    <t>cellid</t>
+  </si>
+  <si>
+    <t>duration</t>
+  </si>
+  <si>
+    <t>region</t>
+  </si>
+  <si>
+    <t>EC</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>EC</t>
+  </si>
+  <si>
+    <t>HC</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>HC</t>
+  </si>
+  <si>
+    <t>PHC</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>HC</t>
+  </si>
+  <si>
+    <t>PHC</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>EC</t>
+  </si>
+  <si>
+    <t>PHC</t>
+  </si>
+  <si>
+    <t>EC</t>
+  </si>
+  <si>
+    <t>HC</t>
+  </si>
+  <si>
+    <t>PHC</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>PHC</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>PHC</t>
+  </si>
+  <si>
+    <t>EC</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>EC</t>
+  </si>
+  <si>
+    <t>HC</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>HC</t>
+  </si>
+  <si>
+    <t>PHC</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>HC</t>
+  </si>
+  <si>
+    <t>PHC</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>EC</t>
+  </si>
+  <si>
+    <t>PHC</t>
+  </si>
+  <si>
+    <t>EC</t>
+  </si>
+  <si>
+    <t>HC</t>
+  </si>
+  <si>
+    <t>PHC</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>PHC</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>PHC</t>
+  </si>
+  <si>
+    <t>condition</t>
+  </si>
+  <si>
+    <t>cellid</t>
+  </si>
+  <si>
+    <t>duration</t>
+  </si>
+  <si>
+    <t>region</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>EC</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>EC</t>
+  </si>
+  <si>
+    <t>PHC</t>
+  </si>
+  <si>
+    <t>EC</t>
+  </si>
+  <si>
+    <t>PHC</t>
+  </si>
+  <si>
+    <t>EC</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>HC</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>EC</t>
+  </si>
+  <si>
+    <t>HC</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>EC</t>
+  </si>
+  <si>
+    <t>PHC</t>
+  </si>
+  <si>
+    <t>HC</t>
+  </si>
+  <si>
+    <t>EC</t>
+  </si>
+  <si>
+    <t>PHC</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>HC</t>
+  </si>
+  <si>
+    <t>EC</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>EC</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>HC</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>HC</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>HC</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>HC</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>HC</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>HC</t>
+  </si>
+  <si>
+    <t>PHC</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>HC</t>
+  </si>
+  <si>
+    <t>PHC</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>HC</t>
+  </si>
+  <si>
+    <t>PHC</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>HC</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>HC</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>EC</t>
+  </si>
+  <si>
+    <t>PHC</t>
+  </si>
+  <si>
+    <t>HC</t>
+  </si>
+  <si>
+    <t>EC</t>
+  </si>
+  <si>
+    <t>HC</t>
+  </si>
+  <si>
+    <t>PHC</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>PHC</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>EC</t>
+  </si>
+  <si>
+    <t>PHC</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>PHC</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>HC</t>
+  </si>
+  <si>
+    <t>EC</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>PHC</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>HC</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>EC</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>EC</t>
+  </si>
+  <si>
+    <t>PHC</t>
+  </si>
+  <si>
+    <t>EC</t>
+  </si>
+  <si>
+    <t>PHC</t>
+  </si>
+  <si>
+    <t>EC</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>HC</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>EC</t>
+  </si>
+  <si>
+    <t>HC</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>EC</t>
+  </si>
+  <si>
+    <t>PHC</t>
+  </si>
+  <si>
+    <t>HC</t>
+  </si>
+  <si>
+    <t>EC</t>
+  </si>
+  <si>
+    <t>PHC</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>HC</t>
+  </si>
+  <si>
+    <t>EC</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>EC</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>HC</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>HC</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>HC</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>HC</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>HC</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>HC</t>
+  </si>
+  <si>
+    <t>PHC</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>HC</t>
+  </si>
+  <si>
+    <t>PHC</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>HC</t>
+  </si>
+  <si>
+    <t>PHC</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>HC</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>HC</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>EC</t>
+  </si>
+  <si>
+    <t>PHC</t>
+  </si>
+  <si>
+    <t>HC</t>
+  </si>
+  <si>
+    <t>EC</t>
+  </si>
+  <si>
+    <t>HC</t>
+  </si>
+  <si>
+    <t>PHC</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>PHC</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>EC</t>
+  </si>
+  <si>
+    <t>PHC</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>PHC</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>HC</t>
+  </si>
+  <si>
+    <t>EC</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>PHC</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>HC</t>
+  </si>
+  <si>
+    <t>condition</t>
+  </si>
+  <si>
+    <t>cellid</t>
+  </si>
+  <si>
+    <t>duration</t>
+  </si>
+  <si>
+    <t>region</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>EC</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>EC</t>
+  </si>
+  <si>
+    <t>PHC</t>
+  </si>
+  <si>
+    <t>EC</t>
+  </si>
+  <si>
+    <t>PHC</t>
+  </si>
+  <si>
+    <t>EC</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>HC</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>EC</t>
+  </si>
+  <si>
+    <t>HC</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>EC</t>
+  </si>
+  <si>
+    <t>PHC</t>
+  </si>
+  <si>
+    <t>HC</t>
+  </si>
+  <si>
+    <t>EC</t>
+  </si>
+  <si>
+    <t>PHC</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>HC</t>
+  </si>
+  <si>
+    <t>EC</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>EC</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>HC</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>HC</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>HC</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>HC</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>HC</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>HC</t>
+  </si>
+  <si>
+    <t>PHC</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>HC</t>
+  </si>
+  <si>
+    <t>PHC</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>HC</t>
+  </si>
+  <si>
+    <t>PHC</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>HC</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>HC</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>EC</t>
+  </si>
+  <si>
+    <t>PHC</t>
+  </si>
+  <si>
+    <t>HC</t>
+  </si>
+  <si>
+    <t>EC</t>
+  </si>
+  <si>
+    <t>HC</t>
+  </si>
+  <si>
+    <t>PHC</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>PHC</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>EC</t>
+  </si>
+  <si>
+    <t>PHC</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>PHC</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>HC</t>
+  </si>
+  <si>
+    <t>EC</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>PHC</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>HC</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>EC</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>EC</t>
+  </si>
+  <si>
+    <t>PHC</t>
+  </si>
+  <si>
+    <t>EC</t>
+  </si>
+  <si>
+    <t>PHC</t>
+  </si>
+  <si>
+    <t>EC</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>HC</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>EC</t>
+  </si>
+  <si>
+    <t>HC</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>EC</t>
+  </si>
+  <si>
+    <t>PHC</t>
+  </si>
+  <si>
+    <t>HC</t>
+  </si>
+  <si>
+    <t>EC</t>
+  </si>
+  <si>
+    <t>PHC</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>HC</t>
+  </si>
+  <si>
+    <t>EC</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>EC</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>HC</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>HC</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>HC</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>HC</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>HC</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>HC</t>
+  </si>
+  <si>
+    <t>PHC</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>HC</t>
+  </si>
+  <si>
+    <t>PHC</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>HC</t>
+  </si>
+  <si>
+    <t>PHC</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>HC</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>HC</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>EC</t>
+  </si>
+  <si>
+    <t>PHC</t>
+  </si>
+  <si>
+    <t>HC</t>
+  </si>
+  <si>
+    <t>EC</t>
+  </si>
+  <si>
+    <t>HC</t>
+  </si>
+  <si>
+    <t>PHC</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>PHC</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>EC</t>
+  </si>
+  <si>
+    <t>PHC</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>PHC</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>HC</t>
+  </si>
+  <si>
+    <t>EC</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>PHC</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>HC</t>
+  </si>
+  <si>
+    <t>condition</t>
+  </si>
+  <si>
+    <t>cellid</t>
   </si>
   <si>
     <t>duration</t>
@@ -555,7 +1659,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -564,13 +1668,21 @@
       <diagonal/>
     </border>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -580,7 +1692,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D87"/>
+  <dimension ref="A1:D331"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="6.85546875" customWidth="true"/>
@@ -591,21 +1703,21 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>130</v>
+        <v>498</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>171</v>
+        <v>539</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>172</v>
+        <v>540</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>173</v>
+        <v>541</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>131</v>
+        <v>499</v>
       </c>
       <c r="B2" s="0">
         <v>1</v>
@@ -619,7 +1731,7 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>131</v>
+        <v>499</v>
       </c>
       <c r="B3" s="0">
         <v>1</v>
@@ -633,7 +1745,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>132</v>
+        <v>500</v>
       </c>
       <c r="B4" s="0">
         <v>1</v>
@@ -647,7 +1759,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>132</v>
+        <v>500</v>
       </c>
       <c r="B5" s="0">
         <v>1</v>
@@ -661,7 +1773,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>133</v>
+        <v>501</v>
       </c>
       <c r="B6" s="0">
         <v>1</v>
@@ -675,7 +1787,7 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>134</v>
+        <v>502</v>
       </c>
       <c r="B7" s="0">
         <v>1</v>
@@ -689,7 +1801,7 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>134</v>
+        <v>502</v>
       </c>
       <c r="B8" s="0">
         <v>1</v>
@@ -703,7 +1815,7 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>135</v>
+        <v>503</v>
       </c>
       <c r="B9" s="0">
         <v>1</v>
@@ -717,7 +1829,7 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>135</v>
+        <v>503</v>
       </c>
       <c r="B10" s="0">
         <v>1</v>
@@ -731,7 +1843,7 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>135</v>
+        <v>503</v>
       </c>
       <c r="B11" s="0">
         <v>1</v>
@@ -745,7 +1857,7 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>135</v>
+        <v>503</v>
       </c>
       <c r="B12" s="0">
         <v>1</v>
@@ -759,7 +1871,7 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>135</v>
+        <v>503</v>
       </c>
       <c r="B13" s="0">
         <v>1</v>
@@ -773,7 +1885,7 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>136</v>
+        <v>504</v>
       </c>
       <c r="B14" s="0">
         <v>1</v>
@@ -787,7 +1899,7 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>137</v>
+        <v>505</v>
       </c>
       <c r="B15" s="0">
         <v>1</v>
@@ -801,7 +1913,7 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>138</v>
+        <v>506</v>
       </c>
       <c r="B16" s="0">
         <v>1</v>
@@ -815,7 +1927,7 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>139</v>
+        <v>507</v>
       </c>
       <c r="B17" s="0">
         <v>1</v>
@@ -829,7 +1941,7 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>140</v>
+        <v>508</v>
       </c>
       <c r="B18" s="0">
         <v>1</v>
@@ -843,7 +1955,7 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>140</v>
+        <v>508</v>
       </c>
       <c r="B19" s="0">
         <v>1</v>
@@ -857,7 +1969,7 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>140</v>
+        <v>508</v>
       </c>
       <c r="B20" s="0">
         <v>1</v>
@@ -871,7 +1983,7 @@
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>141</v>
+        <v>509</v>
       </c>
       <c r="B21" s="0">
         <v>1</v>
@@ -885,7 +1997,7 @@
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>141</v>
+        <v>509</v>
       </c>
       <c r="B22" s="0">
         <v>1</v>
@@ -899,7 +2011,7 @@
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>141</v>
+        <v>509</v>
       </c>
       <c r="B23" s="0">
         <v>1</v>
@@ -913,7 +2025,7 @@
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>141</v>
+        <v>509</v>
       </c>
       <c r="B24" s="0">
         <v>1</v>
@@ -927,7 +2039,7 @@
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>142</v>
+        <v>510</v>
       </c>
       <c r="B25" s="0">
         <v>1</v>
@@ -941,7 +2053,7 @@
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>142</v>
+        <v>510</v>
       </c>
       <c r="B26" s="0">
         <v>1</v>
@@ -955,7 +2067,7 @@
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
-        <v>142</v>
+        <v>510</v>
       </c>
       <c r="B27" s="0">
         <v>1</v>
@@ -969,7 +2081,7 @@
     </row>
     <row r="28">
       <c r="A28" s="0" t="s">
-        <v>142</v>
+        <v>510</v>
       </c>
       <c r="B28" s="0">
         <v>1</v>
@@ -983,7 +2095,7 @@
     </row>
     <row r="29">
       <c r="A29" s="0" t="s">
-        <v>143</v>
+        <v>511</v>
       </c>
       <c r="B29" s="0">
         <v>1</v>
@@ -997,7 +2109,7 @@
     </row>
     <row r="30">
       <c r="A30" s="0" t="s">
-        <v>143</v>
+        <v>511</v>
       </c>
       <c r="B30" s="0">
         <v>1</v>
@@ -1011,7 +2123,7 @@
     </row>
     <row r="31">
       <c r="A31" s="0" t="s">
-        <v>143</v>
+        <v>511</v>
       </c>
       <c r="B31" s="0">
         <v>1</v>
@@ -1025,7 +2137,7 @@
     </row>
     <row r="32">
       <c r="A32" s="0" t="s">
-        <v>143</v>
+        <v>511</v>
       </c>
       <c r="B32" s="0">
         <v>1</v>
@@ -1039,7 +2151,7 @@
     </row>
     <row r="33">
       <c r="A33" s="0" t="s">
-        <v>143</v>
+        <v>511</v>
       </c>
       <c r="B33" s="0">
         <v>1</v>
@@ -1053,7 +2165,7 @@
     </row>
     <row r="34">
       <c r="A34" s="0" t="s">
-        <v>144</v>
+        <v>512</v>
       </c>
       <c r="B34" s="0">
         <v>1</v>
@@ -1067,7 +2179,7 @@
     </row>
     <row r="35">
       <c r="A35" s="0" t="s">
-        <v>145</v>
+        <v>513</v>
       </c>
       <c r="B35" s="0">
         <v>1</v>
@@ -1081,7 +2193,7 @@
     </row>
     <row r="36">
       <c r="A36" s="0" t="s">
-        <v>146</v>
+        <v>514</v>
       </c>
       <c r="B36" s="0">
         <v>1</v>
@@ -1095,7 +2207,7 @@
     </row>
     <row r="37">
       <c r="A37" s="0" t="s">
-        <v>147</v>
+        <v>515</v>
       </c>
       <c r="B37" s="0">
         <v>1</v>
@@ -1109,7 +2221,7 @@
     </row>
     <row r="38">
       <c r="A38" s="0" t="s">
-        <v>147</v>
+        <v>515</v>
       </c>
       <c r="B38" s="0">
         <v>1</v>
@@ -1123,7 +2235,7 @@
     </row>
     <row r="39">
       <c r="A39" s="0" t="s">
-        <v>147</v>
+        <v>515</v>
       </c>
       <c r="B39" s="0">
         <v>1</v>
@@ -1137,7 +2249,7 @@
     </row>
     <row r="40">
       <c r="A40" s="0" t="s">
-        <v>148</v>
+        <v>516</v>
       </c>
       <c r="B40" s="0">
         <v>1</v>
@@ -1151,7 +2263,7 @@
     </row>
     <row r="41">
       <c r="A41" s="0" t="s">
-        <v>149</v>
+        <v>517</v>
       </c>
       <c r="B41" s="0">
         <v>1</v>
@@ -1165,7 +2277,7 @@
     </row>
     <row r="42">
       <c r="A42" s="0" t="s">
-        <v>150</v>
+        <v>518</v>
       </c>
       <c r="B42" s="0">
         <v>1</v>
@@ -1179,7 +2291,7 @@
     </row>
     <row r="43">
       <c r="A43" s="0" t="s">
-        <v>150</v>
+        <v>518</v>
       </c>
       <c r="B43" s="0">
         <v>1</v>
@@ -1193,7 +2305,7 @@
     </row>
     <row r="44">
       <c r="A44" s="0" t="s">
-        <v>150</v>
+        <v>518</v>
       </c>
       <c r="B44" s="0">
         <v>1</v>
@@ -1207,7 +2319,7 @@
     </row>
     <row r="45">
       <c r="A45" s="0" t="s">
-        <v>151</v>
+        <v>519</v>
       </c>
       <c r="B45" s="0">
         <v>2</v>
@@ -1221,7 +2333,7 @@
     </row>
     <row r="46">
       <c r="A46" s="0" t="s">
-        <v>151</v>
+        <v>519</v>
       </c>
       <c r="B46" s="0">
         <v>2</v>
@@ -1235,7 +2347,7 @@
     </row>
     <row r="47">
       <c r="A47" s="0" t="s">
-        <v>152</v>
+        <v>520</v>
       </c>
       <c r="B47" s="0">
         <v>2</v>
@@ -1249,7 +2361,7 @@
     </row>
     <row r="48">
       <c r="A48" s="0" t="s">
-        <v>152</v>
+        <v>520</v>
       </c>
       <c r="B48" s="0">
         <v>2</v>
@@ -1263,7 +2375,7 @@
     </row>
     <row r="49">
       <c r="A49" s="0" t="s">
-        <v>153</v>
+        <v>521</v>
       </c>
       <c r="B49" s="0">
         <v>2</v>
@@ -1277,7 +2389,7 @@
     </row>
     <row r="50">
       <c r="A50" s="0" t="s">
-        <v>154</v>
+        <v>522</v>
       </c>
       <c r="B50" s="0">
         <v>2</v>
@@ -1291,7 +2403,7 @@
     </row>
     <row r="51">
       <c r="A51" s="0" t="s">
-        <v>154</v>
+        <v>522</v>
       </c>
       <c r="B51" s="0">
         <v>2</v>
@@ -1305,7 +2417,7 @@
     </row>
     <row r="52">
       <c r="A52" s="0" t="s">
-        <v>155</v>
+        <v>523</v>
       </c>
       <c r="B52" s="0">
         <v>2</v>
@@ -1319,7 +2431,7 @@
     </row>
     <row r="53">
       <c r="A53" s="0" t="s">
-        <v>155</v>
+        <v>523</v>
       </c>
       <c r="B53" s="0">
         <v>2</v>
@@ -1333,7 +2445,7 @@
     </row>
     <row r="54">
       <c r="A54" s="0" t="s">
-        <v>155</v>
+        <v>523</v>
       </c>
       <c r="B54" s="0">
         <v>2</v>
@@ -1347,7 +2459,7 @@
     </row>
     <row r="55">
       <c r="A55" s="0" t="s">
-        <v>155</v>
+        <v>523</v>
       </c>
       <c r="B55" s="0">
         <v>2</v>
@@ -1361,7 +2473,7 @@
     </row>
     <row r="56">
       <c r="A56" s="0" t="s">
-        <v>155</v>
+        <v>523</v>
       </c>
       <c r="B56" s="0">
         <v>2</v>
@@ -1375,7 +2487,7 @@
     </row>
     <row r="57">
       <c r="A57" s="0" t="s">
-        <v>156</v>
+        <v>524</v>
       </c>
       <c r="B57" s="0">
         <v>2</v>
@@ -1389,7 +2501,7 @@
     </row>
     <row r="58">
       <c r="A58" s="0" t="s">
-        <v>157</v>
+        <v>525</v>
       </c>
       <c r="B58" s="0">
         <v>2</v>
@@ -1403,7 +2515,7 @@
     </row>
     <row r="59">
       <c r="A59" s="0" t="s">
-        <v>158</v>
+        <v>526</v>
       </c>
       <c r="B59" s="0">
         <v>2</v>
@@ -1417,7 +2529,7 @@
     </row>
     <row r="60">
       <c r="A60" s="0" t="s">
-        <v>159</v>
+        <v>527</v>
       </c>
       <c r="B60" s="0">
         <v>2</v>
@@ -1431,7 +2543,7 @@
     </row>
     <row r="61">
       <c r="A61" s="0" t="s">
-        <v>160</v>
+        <v>528</v>
       </c>
       <c r="B61" s="0">
         <v>2</v>
@@ -1445,7 +2557,7 @@
     </row>
     <row r="62">
       <c r="A62" s="0" t="s">
-        <v>160</v>
+        <v>528</v>
       </c>
       <c r="B62" s="0">
         <v>2</v>
@@ -1459,7 +2571,7 @@
     </row>
     <row r="63">
       <c r="A63" s="0" t="s">
-        <v>160</v>
+        <v>528</v>
       </c>
       <c r="B63" s="0">
         <v>2</v>
@@ -1473,7 +2585,7 @@
     </row>
     <row r="64">
       <c r="A64" s="0" t="s">
-        <v>161</v>
+        <v>529</v>
       </c>
       <c r="B64" s="0">
         <v>2</v>
@@ -1487,7 +2599,7 @@
     </row>
     <row r="65">
       <c r="A65" s="0" t="s">
-        <v>161</v>
+        <v>529</v>
       </c>
       <c r="B65" s="0">
         <v>2</v>
@@ -1501,7 +2613,7 @@
     </row>
     <row r="66">
       <c r="A66" s="0" t="s">
-        <v>161</v>
+        <v>529</v>
       </c>
       <c r="B66" s="0">
         <v>2</v>
@@ -1515,7 +2627,7 @@
     </row>
     <row r="67">
       <c r="A67" s="0" t="s">
-        <v>161</v>
+        <v>529</v>
       </c>
       <c r="B67" s="0">
         <v>2</v>
@@ -1529,7 +2641,7 @@
     </row>
     <row r="68">
       <c r="A68" s="0" t="s">
-        <v>162</v>
+        <v>530</v>
       </c>
       <c r="B68" s="0">
         <v>2</v>
@@ -1543,7 +2655,7 @@
     </row>
     <row r="69">
       <c r="A69" s="0" t="s">
-        <v>162</v>
+        <v>530</v>
       </c>
       <c r="B69" s="0">
         <v>2</v>
@@ -1557,7 +2669,7 @@
     </row>
     <row r="70">
       <c r="A70" s="0" t="s">
-        <v>162</v>
+        <v>530</v>
       </c>
       <c r="B70" s="0">
         <v>2</v>
@@ -1571,7 +2683,7 @@
     </row>
     <row r="71">
       <c r="A71" s="0" t="s">
-        <v>162</v>
+        <v>530</v>
       </c>
       <c r="B71" s="0">
         <v>2</v>
@@ -1585,7 +2697,7 @@
     </row>
     <row r="72">
       <c r="A72" s="0" t="s">
-        <v>163</v>
+        <v>531</v>
       </c>
       <c r="B72" s="0">
         <v>2</v>
@@ -1599,7 +2711,7 @@
     </row>
     <row r="73">
       <c r="A73" s="0" t="s">
-        <v>163</v>
+        <v>531</v>
       </c>
       <c r="B73" s="0">
         <v>2</v>
@@ -1613,7 +2725,7 @@
     </row>
     <row r="74">
       <c r="A74" s="0" t="s">
-        <v>163</v>
+        <v>531</v>
       </c>
       <c r="B74" s="0">
         <v>2</v>
@@ -1627,7 +2739,7 @@
     </row>
     <row r="75">
       <c r="A75" s="0" t="s">
-        <v>163</v>
+        <v>531</v>
       </c>
       <c r="B75" s="0">
         <v>2</v>
@@ -1641,7 +2753,7 @@
     </row>
     <row r="76">
       <c r="A76" s="0" t="s">
-        <v>163</v>
+        <v>531</v>
       </c>
       <c r="B76" s="0">
         <v>2</v>
@@ -1655,7 +2767,7 @@
     </row>
     <row r="77">
       <c r="A77" s="0" t="s">
-        <v>164</v>
+        <v>532</v>
       </c>
       <c r="B77" s="0">
         <v>2</v>
@@ -1669,7 +2781,7 @@
     </row>
     <row r="78">
       <c r="A78" s="0" t="s">
-        <v>165</v>
+        <v>533</v>
       </c>
       <c r="B78" s="0">
         <v>2</v>
@@ -1683,7 +2795,7 @@
     </row>
     <row r="79">
       <c r="A79" s="0" t="s">
-        <v>166</v>
+        <v>534</v>
       </c>
       <c r="B79" s="0">
         <v>2</v>
@@ -1697,7 +2809,7 @@
     </row>
     <row r="80">
       <c r="A80" s="0" t="s">
-        <v>167</v>
+        <v>535</v>
       </c>
       <c r="B80" s="0">
         <v>2</v>
@@ -1711,7 +2823,7 @@
     </row>
     <row r="81">
       <c r="A81" s="0" t="s">
-        <v>167</v>
+        <v>535</v>
       </c>
       <c r="B81" s="0">
         <v>2</v>
@@ -1725,7 +2837,7 @@
     </row>
     <row r="82">
       <c r="A82" s="0" t="s">
-        <v>167</v>
+        <v>535</v>
       </c>
       <c r="B82" s="0">
         <v>2</v>
@@ -1739,7 +2851,7 @@
     </row>
     <row r="83">
       <c r="A83" s="0" t="s">
-        <v>168</v>
+        <v>536</v>
       </c>
       <c r="B83" s="0">
         <v>2</v>
@@ -1753,7 +2865,7 @@
     </row>
     <row r="84">
       <c r="A84" s="0" t="s">
-        <v>169</v>
+        <v>537</v>
       </c>
       <c r="B84" s="0">
         <v>2</v>
@@ -1767,7 +2879,7 @@
     </row>
     <row r="85">
       <c r="A85" s="0" t="s">
-        <v>170</v>
+        <v>538</v>
       </c>
       <c r="B85" s="0">
         <v>2</v>
@@ -1781,7 +2893,7 @@
     </row>
     <row r="86">
       <c r="A86" s="0" t="s">
-        <v>170</v>
+        <v>538</v>
       </c>
       <c r="B86" s="0">
         <v>2</v>
@@ -1795,7 +2907,7 @@
     </row>
     <row r="87">
       <c r="A87" s="0" t="s">
-        <v>170</v>
+        <v>538</v>
       </c>
       <c r="B87" s="0">
         <v>2</v>
@@ -1805,6 +2917,3422 @@
       </c>
       <c r="D87" s="0">
         <v>150.45166015625</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="0" t="s">
+        <v>357</v>
+      </c>
+      <c r="B88" s="0">
+        <v>1</v>
+      </c>
+      <c r="C88" s="0">
+        <v>87</v>
+      </c>
+      <c r="D88" s="0">
+        <v>116.56951904296875</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="0" t="s">
+        <v>357</v>
+      </c>
+      <c r="B89" s="0">
+        <v>1</v>
+      </c>
+      <c r="C89" s="0">
+        <v>88</v>
+      </c>
+      <c r="D89" s="0">
+        <v>59.99755859375</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="0" t="s">
+        <v>357</v>
+      </c>
+      <c r="B90" s="0">
+        <v>1</v>
+      </c>
+      <c r="C90" s="0">
+        <v>89</v>
+      </c>
+      <c r="D90" s="0">
+        <v>121.29974365234375</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="0" t="s">
+        <v>357</v>
+      </c>
+      <c r="B91" s="0">
+        <v>1</v>
+      </c>
+      <c r="C91" s="0">
+        <v>90</v>
+      </c>
+      <c r="D91" s="0">
+        <v>119.781494140625</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="0" t="s">
+        <v>357</v>
+      </c>
+      <c r="B92" s="0">
+        <v>1</v>
+      </c>
+      <c r="C92" s="0">
+        <v>91</v>
+      </c>
+      <c r="D92" s="0">
+        <v>190.34576416015625</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="0" t="s">
+        <v>358</v>
+      </c>
+      <c r="B93" s="0">
+        <v>1</v>
+      </c>
+      <c r="C93" s="0">
+        <v>92</v>
+      </c>
+      <c r="D93" s="0">
+        <v>88.96636962890625</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="0" t="s">
+        <v>358</v>
+      </c>
+      <c r="B94" s="0">
+        <v>1</v>
+      </c>
+      <c r="C94" s="0">
+        <v>93</v>
+      </c>
+      <c r="D94" s="0">
+        <v>195.3887939453125</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="0" t="s">
+        <v>358</v>
+      </c>
+      <c r="B95" s="0">
+        <v>1</v>
+      </c>
+      <c r="C95" s="0">
+        <v>94</v>
+      </c>
+      <c r="D95" s="0">
+        <v>122.528076171875</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="0" t="s">
+        <v>359</v>
+      </c>
+      <c r="B96" s="0">
+        <v>1</v>
+      </c>
+      <c r="C96" s="0">
+        <v>95</v>
+      </c>
+      <c r="D96" s="0">
+        <v>231.0033076107502</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="0" t="s">
+        <v>360</v>
+      </c>
+      <c r="B97" s="0">
+        <v>1</v>
+      </c>
+      <c r="C97" s="0">
+        <v>96</v>
+      </c>
+      <c r="D97" s="0">
+        <v>156.18896484375</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="0" t="s">
+        <v>360</v>
+      </c>
+      <c r="B98" s="0">
+        <v>1</v>
+      </c>
+      <c r="C98" s="0">
+        <v>97</v>
+      </c>
+      <c r="D98" s="0">
+        <v>108.3526611328125</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="0" t="s">
+        <v>360</v>
+      </c>
+      <c r="B99" s="0">
+        <v>1</v>
+      </c>
+      <c r="C99" s="0">
+        <v>98</v>
+      </c>
+      <c r="D99" s="0">
+        <v>76.8890380859375</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="0" t="s">
+        <v>360</v>
+      </c>
+      <c r="B100" s="0">
+        <v>1</v>
+      </c>
+      <c r="C100" s="0">
+        <v>99</v>
+      </c>
+      <c r="D100" s="0">
+        <v>106.8878173828125</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="0" t="s">
+        <v>361</v>
+      </c>
+      <c r="B101" s="0">
+        <v>1</v>
+      </c>
+      <c r="C101" s="0">
+        <v>100</v>
+      </c>
+      <c r="D101" s="0">
+        <v>174.70550537109375</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="0" t="s">
+        <v>362</v>
+      </c>
+      <c r="B102" s="0">
+        <v>1</v>
+      </c>
+      <c r="C102" s="0">
+        <v>101</v>
+      </c>
+      <c r="D102" s="0">
+        <v>107.58209228515625</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="0" t="s">
+        <v>362</v>
+      </c>
+      <c r="B103" s="0">
+        <v>1</v>
+      </c>
+      <c r="C103" s="0">
+        <v>102</v>
+      </c>
+      <c r="D103" s="0">
+        <v>94.93255615234375</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="0" t="s">
+        <v>362</v>
+      </c>
+      <c r="B104" s="0">
+        <v>1</v>
+      </c>
+      <c r="C104" s="0">
+        <v>103</v>
+      </c>
+      <c r="D104" s="0">
+        <v>233.367919921875</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="0" t="s">
+        <v>363</v>
+      </c>
+      <c r="B105" s="0">
+        <v>1</v>
+      </c>
+      <c r="C105" s="0">
+        <v>104</v>
+      </c>
+      <c r="D105" s="0">
+        <v>87.79144287109375</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="0" t="s">
+        <v>363</v>
+      </c>
+      <c r="B106" s="0">
+        <v>1</v>
+      </c>
+      <c r="C106" s="0">
+        <v>105</v>
+      </c>
+      <c r="D106" s="0">
+        <v>130.13458251953125</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="0" t="s">
+        <v>363</v>
+      </c>
+      <c r="B107" s="0">
+        <v>1</v>
+      </c>
+      <c r="C107" s="0">
+        <v>106</v>
+      </c>
+      <c r="D107" s="0">
+        <v>111.66481836140156</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="0" t="s">
+        <v>363</v>
+      </c>
+      <c r="B108" s="0">
+        <v>1</v>
+      </c>
+      <c r="C108" s="0">
+        <v>107</v>
+      </c>
+      <c r="D108" s="0">
+        <v>130.035400390625</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="0" t="s">
+        <v>363</v>
+      </c>
+      <c r="B109" s="0">
+        <v>1</v>
+      </c>
+      <c r="C109" s="0">
+        <v>108</v>
+      </c>
+      <c r="D109" s="0">
+        <v>93.1396484375</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="0" t="s">
+        <v>364</v>
+      </c>
+      <c r="B110" s="0">
+        <v>1</v>
+      </c>
+      <c r="C110" s="0">
+        <v>109</v>
+      </c>
+      <c r="D110" s="0">
+        <v>118.71337890625</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="0" t="s">
+        <v>364</v>
+      </c>
+      <c r="B111" s="0">
+        <v>1</v>
+      </c>
+      <c r="C111" s="0">
+        <v>110</v>
+      </c>
+      <c r="D111" s="0">
+        <v>186.70654296875</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="0" t="s">
+        <v>364</v>
+      </c>
+      <c r="B112" s="0">
+        <v>1</v>
+      </c>
+      <c r="C112" s="0">
+        <v>111</v>
+      </c>
+      <c r="D112" s="0">
+        <v>110.45074462890625</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="0" t="s">
+        <v>364</v>
+      </c>
+      <c r="B113" s="0">
+        <v>1</v>
+      </c>
+      <c r="C113" s="0">
+        <v>112</v>
+      </c>
+      <c r="D113" s="0">
+        <v>201.446533203125</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="0" t="s">
+        <v>364</v>
+      </c>
+      <c r="B114" s="0">
+        <v>1</v>
+      </c>
+      <c r="C114" s="0">
+        <v>113</v>
+      </c>
+      <c r="D114" s="0">
+        <v>98.30474853515625</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="0" t="s">
+        <v>364</v>
+      </c>
+      <c r="B115" s="0">
+        <v>1</v>
+      </c>
+      <c r="C115" s="0">
+        <v>114</v>
+      </c>
+      <c r="D115" s="0">
+        <v>153.25927734375</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="0" t="s">
+        <v>364</v>
+      </c>
+      <c r="B116" s="0">
+        <v>1</v>
+      </c>
+      <c r="C116" s="0">
+        <v>115</v>
+      </c>
+      <c r="D116" s="0">
+        <v>80.92498779296875</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="0" t="s">
+        <v>364</v>
+      </c>
+      <c r="B117" s="0">
+        <v>1</v>
+      </c>
+      <c r="C117" s="0">
+        <v>116</v>
+      </c>
+      <c r="D117" s="0">
+        <v>149.2156982421875</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="0" t="s">
+        <v>364</v>
+      </c>
+      <c r="B118" s="0">
+        <v>1</v>
+      </c>
+      <c r="C118" s="0">
+        <v>117</v>
+      </c>
+      <c r="D118" s="0">
+        <v>43.8232421875</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="0" t="s">
+        <v>364</v>
+      </c>
+      <c r="B119" s="0">
+        <v>1</v>
+      </c>
+      <c r="C119" s="0">
+        <v>118</v>
+      </c>
+      <c r="D119" s="0">
+        <v>84.47265625</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="0" t="s">
+        <v>365</v>
+      </c>
+      <c r="B120" s="0">
+        <v>1</v>
+      </c>
+      <c r="C120" s="0">
+        <v>119</v>
+      </c>
+      <c r="D120" s="0">
+        <v>144.134521484375</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="0" t="s">
+        <v>366</v>
+      </c>
+      <c r="B121" s="0">
+        <v>1</v>
+      </c>
+      <c r="C121" s="0">
+        <v>120</v>
+      </c>
+      <c r="D121" s="0">
+        <v>104.2633056640625</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="0" t="s">
+        <v>366</v>
+      </c>
+      <c r="B122" s="0">
+        <v>1</v>
+      </c>
+      <c r="C122" s="0">
+        <v>121</v>
+      </c>
+      <c r="D122" s="0">
+        <v>115.54718017578125</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="0" t="s">
+        <v>367</v>
+      </c>
+      <c r="B123" s="0">
+        <v>1</v>
+      </c>
+      <c r="C123" s="0">
+        <v>122</v>
+      </c>
+      <c r="D123" s="0">
+        <v>134.613037109375</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="0" t="s">
+        <v>368</v>
+      </c>
+      <c r="B124" s="0">
+        <v>1</v>
+      </c>
+      <c r="C124" s="0">
+        <v>123</v>
+      </c>
+      <c r="D124" s="0">
+        <v>125.6561279296875</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="0" t="s">
+        <v>368</v>
+      </c>
+      <c r="B125" s="0">
+        <v>1</v>
+      </c>
+      <c r="C125" s="0">
+        <v>124</v>
+      </c>
+      <c r="D125" s="0">
+        <v>105.0567626953125</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="0" t="s">
+        <v>369</v>
+      </c>
+      <c r="B126" s="0">
+        <v>1</v>
+      </c>
+      <c r="C126" s="0">
+        <v>125</v>
+      </c>
+      <c r="D126" s="0">
+        <v>237.08343505859375</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="0" t="s">
+        <v>369</v>
+      </c>
+      <c r="B127" s="0">
+        <v>1</v>
+      </c>
+      <c r="C127" s="0">
+        <v>126</v>
+      </c>
+      <c r="D127" s="0">
+        <v>144.8516845703125</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="0" t="s">
+        <v>369</v>
+      </c>
+      <c r="B128" s="0">
+        <v>1</v>
+      </c>
+      <c r="C128" s="0">
+        <v>127</v>
+      </c>
+      <c r="D128" s="0">
+        <v>194.41323144547641</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="0" t="s">
+        <v>369</v>
+      </c>
+      <c r="B129" s="0">
+        <v>1</v>
+      </c>
+      <c r="C129" s="0">
+        <v>128</v>
+      </c>
+      <c r="D129" s="0">
+        <v>172.5616455078125</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="0" t="s">
+        <v>369</v>
+      </c>
+      <c r="B130" s="0">
+        <v>1</v>
+      </c>
+      <c r="C130" s="0">
+        <v>129</v>
+      </c>
+      <c r="D130" s="0">
+        <v>161.163330078125</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="0" t="s">
+        <v>369</v>
+      </c>
+      <c r="B131" s="0">
+        <v>1</v>
+      </c>
+      <c r="C131" s="0">
+        <v>130</v>
+      </c>
+      <c r="D131" s="0">
+        <v>129.5318603515625</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="0" t="s">
+        <v>370</v>
+      </c>
+      <c r="B132" s="0">
+        <v>1</v>
+      </c>
+      <c r="C132" s="0">
+        <v>131</v>
+      </c>
+      <c r="D132" s="0">
+        <v>160.186767578125</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="0" t="s">
+        <v>371</v>
+      </c>
+      <c r="B133" s="0">
+        <v>1</v>
+      </c>
+      <c r="C133" s="0">
+        <v>132</v>
+      </c>
+      <c r="D133" s="0">
+        <v>59.295654296875</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="0" t="s">
+        <v>371</v>
+      </c>
+      <c r="B134" s="0">
+        <v>1</v>
+      </c>
+      <c r="C134" s="0">
+        <v>133</v>
+      </c>
+      <c r="D134" s="0">
+        <v>115.47088623046875</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="0" t="s">
+        <v>371</v>
+      </c>
+      <c r="B135" s="0">
+        <v>1</v>
+      </c>
+      <c r="C135" s="0">
+        <v>134</v>
+      </c>
+      <c r="D135" s="0">
+        <v>112.2283935546875</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="0" t="s">
+        <v>372</v>
+      </c>
+      <c r="B136" s="0">
+        <v>1</v>
+      </c>
+      <c r="C136" s="0">
+        <v>135</v>
+      </c>
+      <c r="D136" s="0">
+        <v>272.15576171875</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="0" t="s">
+        <v>372</v>
+      </c>
+      <c r="B137" s="0">
+        <v>1</v>
+      </c>
+      <c r="C137" s="0">
+        <v>136</v>
+      </c>
+      <c r="D137" s="0">
+        <v>363.3880615234375</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="0" t="s">
+        <v>373</v>
+      </c>
+      <c r="B138" s="0">
+        <v>1</v>
+      </c>
+      <c r="C138" s="0">
+        <v>137</v>
+      </c>
+      <c r="D138" s="0">
+        <v>72.540283203125</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="0" t="s">
+        <v>374</v>
+      </c>
+      <c r="B139" s="0">
+        <v>1</v>
+      </c>
+      <c r="C139" s="0">
+        <v>138</v>
+      </c>
+      <c r="D139" s="0">
+        <v>82.60345458984375</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="0" t="s">
+        <v>374</v>
+      </c>
+      <c r="B140" s="0">
+        <v>1</v>
+      </c>
+      <c r="C140" s="0">
+        <v>139</v>
+      </c>
+      <c r="D140" s="0">
+        <v>127.532958984375</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="0" t="s">
+        <v>374</v>
+      </c>
+      <c r="B141" s="0">
+        <v>1</v>
+      </c>
+      <c r="C141" s="0">
+        <v>140</v>
+      </c>
+      <c r="D141" s="0">
+        <v>82.145940918475389</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="0" t="s">
+        <v>374</v>
+      </c>
+      <c r="B142" s="0">
+        <v>1</v>
+      </c>
+      <c r="C142" s="0">
+        <v>141</v>
+      </c>
+      <c r="D142" s="0">
+        <v>113.15155029296875</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="0" t="s">
+        <v>374</v>
+      </c>
+      <c r="B143" s="0">
+        <v>1</v>
+      </c>
+      <c r="C143" s="0">
+        <v>142</v>
+      </c>
+      <c r="D143" s="0">
+        <v>120.78957422077656</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="0" t="s">
+        <v>374</v>
+      </c>
+      <c r="B144" s="0">
+        <v>1</v>
+      </c>
+      <c r="C144" s="0">
+        <v>143</v>
+      </c>
+      <c r="D144" s="0">
+        <v>180.7708740234375</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="0" t="s">
+        <v>374</v>
+      </c>
+      <c r="B145" s="0">
+        <v>1</v>
+      </c>
+      <c r="C145" s="0">
+        <v>144</v>
+      </c>
+      <c r="D145" s="0">
+        <v>151.7333984375</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="0" t="s">
+        <v>374</v>
+      </c>
+      <c r="B146" s="0">
+        <v>1</v>
+      </c>
+      <c r="C146" s="0">
+        <v>145</v>
+      </c>
+      <c r="D146" s="0">
+        <v>65.7501220703125</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="0" t="s">
+        <v>374</v>
+      </c>
+      <c r="B147" s="0">
+        <v>1</v>
+      </c>
+      <c r="C147" s="0">
+        <v>146</v>
+      </c>
+      <c r="D147" s="0">
+        <v>61.70654296875</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="0" t="s">
+        <v>374</v>
+      </c>
+      <c r="B148" s="0">
+        <v>1</v>
+      </c>
+      <c r="C148" s="0">
+        <v>147</v>
+      </c>
+      <c r="D148" s="0">
+        <v>110.2142333984375</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="0" t="s">
+        <v>375</v>
+      </c>
+      <c r="B149" s="0">
+        <v>1</v>
+      </c>
+      <c r="C149" s="0">
+        <v>148</v>
+      </c>
+      <c r="D149" s="0">
+        <v>67.40570068359375</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="0" t="s">
+        <v>375</v>
+      </c>
+      <c r="B150" s="0">
+        <v>1</v>
+      </c>
+      <c r="C150" s="0">
+        <v>149</v>
+      </c>
+      <c r="D150" s="0">
+        <v>96.61865234375</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="0" t="s">
+        <v>375</v>
+      </c>
+      <c r="B151" s="0">
+        <v>1</v>
+      </c>
+      <c r="C151" s="0">
+        <v>150</v>
+      </c>
+      <c r="D151" s="0">
+        <v>215.423583984375</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="0" t="s">
+        <v>376</v>
+      </c>
+      <c r="B152" s="0">
+        <v>1</v>
+      </c>
+      <c r="C152" s="0">
+        <v>151</v>
+      </c>
+      <c r="D152" s="0">
+        <v>86.9903564453125</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="0" t="s">
+        <v>377</v>
+      </c>
+      <c r="B153" s="0">
+        <v>1</v>
+      </c>
+      <c r="C153" s="0">
+        <v>152</v>
+      </c>
+      <c r="D153" s="0">
+        <v>196.4111328125</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="0" t="s">
+        <v>378</v>
+      </c>
+      <c r="B154" s="0">
+        <v>1</v>
+      </c>
+      <c r="C154" s="0">
+        <v>153</v>
+      </c>
+      <c r="D154" s="0">
+        <v>153.076171875</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="0" t="s">
+        <v>379</v>
+      </c>
+      <c r="B155" s="0">
+        <v>1</v>
+      </c>
+      <c r="C155" s="0">
+        <v>154</v>
+      </c>
+      <c r="D155" s="0">
+        <v>135.7269287109375</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="0" t="s">
+        <v>379</v>
+      </c>
+      <c r="B156" s="0">
+        <v>1</v>
+      </c>
+      <c r="C156" s="0">
+        <v>155</v>
+      </c>
+      <c r="D156" s="0">
+        <v>117.919921875</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="0" t="s">
+        <v>380</v>
+      </c>
+      <c r="B157" s="0">
+        <v>1</v>
+      </c>
+      <c r="C157" s="0">
+        <v>156</v>
+      </c>
+      <c r="D157" s="0">
+        <v>150.9552001953125</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="0" t="s">
+        <v>380</v>
+      </c>
+      <c r="B158" s="0">
+        <v>1</v>
+      </c>
+      <c r="C158" s="0">
+        <v>157</v>
+      </c>
+      <c r="D158" s="0">
+        <v>164.08538818359375</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="0" t="s">
+        <v>380</v>
+      </c>
+      <c r="B159" s="0">
+        <v>1</v>
+      </c>
+      <c r="C159" s="0">
+        <v>158</v>
+      </c>
+      <c r="D159" s="0">
+        <v>120.05615234375</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="0" t="s">
+        <v>380</v>
+      </c>
+      <c r="B160" s="0">
+        <v>1</v>
+      </c>
+      <c r="C160" s="0">
+        <v>159</v>
+      </c>
+      <c r="D160" s="0">
+        <v>71.5484619140625</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="0" t="s">
+        <v>380</v>
+      </c>
+      <c r="B161" s="0">
+        <v>1</v>
+      </c>
+      <c r="C161" s="0">
+        <v>160</v>
+      </c>
+      <c r="D161" s="0">
+        <v>114.2578125</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="0" t="s">
+        <v>380</v>
+      </c>
+      <c r="B162" s="0">
+        <v>1</v>
+      </c>
+      <c r="C162" s="0">
+        <v>161</v>
+      </c>
+      <c r="D162" s="0">
+        <v>131.805419921875</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="0" t="s">
+        <v>380</v>
+      </c>
+      <c r="B163" s="0">
+        <v>1</v>
+      </c>
+      <c r="C163" s="0">
+        <v>162</v>
+      </c>
+      <c r="D163" s="0">
+        <v>87.296032227575779</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="0" t="s">
+        <v>381</v>
+      </c>
+      <c r="B164" s="0">
+        <v>1</v>
+      </c>
+      <c r="C164" s="0">
+        <v>163</v>
+      </c>
+      <c r="D164" s="0">
+        <v>64.67437744140625</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="0" t="s">
+        <v>382</v>
+      </c>
+      <c r="B165" s="0">
+        <v>1</v>
+      </c>
+      <c r="C165" s="0">
+        <v>164</v>
+      </c>
+      <c r="D165" s="0">
+        <v>79.2236328125</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="0" t="s">
+        <v>382</v>
+      </c>
+      <c r="B166" s="0">
+        <v>1</v>
+      </c>
+      <c r="C166" s="0">
+        <v>165</v>
+      </c>
+      <c r="D166" s="0">
+        <v>91.61376953125</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="0" t="s">
+        <v>383</v>
+      </c>
+      <c r="B167" s="0">
+        <v>2</v>
+      </c>
+      <c r="C167" s="0">
+        <v>1</v>
+      </c>
+      <c r="D167" s="0">
+        <v>95.15380859375</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="0" t="s">
+        <v>384</v>
+      </c>
+      <c r="B168" s="0">
+        <v>2</v>
+      </c>
+      <c r="C168" s="0">
+        <v>2</v>
+      </c>
+      <c r="D168" s="0">
+        <v>98.876953125</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="0" t="s">
+        <v>385</v>
+      </c>
+      <c r="B169" s="0">
+        <v>2</v>
+      </c>
+      <c r="C169" s="0">
+        <v>3</v>
+      </c>
+      <c r="D169" s="0">
+        <v>447.71625928580761</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="0" t="s">
+        <v>385</v>
+      </c>
+      <c r="B170" s="0">
+        <v>2</v>
+      </c>
+      <c r="C170" s="0">
+        <v>4</v>
+      </c>
+      <c r="D170" s="0">
+        <v>71.0296630859375</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="0" t="s">
+        <v>386</v>
+      </c>
+      <c r="B171" s="0">
+        <v>2</v>
+      </c>
+      <c r="C171" s="0">
+        <v>5</v>
+      </c>
+      <c r="D171" s="0">
+        <v>86.5020751953125</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="0" t="s">
+        <v>387</v>
+      </c>
+      <c r="B172" s="0">
+        <v>2</v>
+      </c>
+      <c r="C172" s="0">
+        <v>6</v>
+      </c>
+      <c r="D172" s="0">
+        <v>55.60302734375</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="0" t="s">
+        <v>388</v>
+      </c>
+      <c r="B173" s="0">
+        <v>2</v>
+      </c>
+      <c r="C173" s="0">
+        <v>7</v>
+      </c>
+      <c r="D173" s="0">
+        <v>118.804931640625</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="0" t="s">
+        <v>389</v>
+      </c>
+      <c r="B174" s="0">
+        <v>2</v>
+      </c>
+      <c r="C174" s="0">
+        <v>8</v>
+      </c>
+      <c r="D174" s="0">
+        <v>110.5499267578125</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="0" t="s">
+        <v>390</v>
+      </c>
+      <c r="B175" s="0">
+        <v>2</v>
+      </c>
+      <c r="C175" s="0">
+        <v>9</v>
+      </c>
+      <c r="D175" s="0">
+        <v>139.495849609375</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="0" t="s">
+        <v>390</v>
+      </c>
+      <c r="B176" s="0">
+        <v>2</v>
+      </c>
+      <c r="C176" s="0">
+        <v>10</v>
+      </c>
+      <c r="D176" s="0">
+        <v>91.6748046875</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="0" t="s">
+        <v>391</v>
+      </c>
+      <c r="B177" s="0">
+        <v>2</v>
+      </c>
+      <c r="C177" s="0">
+        <v>11</v>
+      </c>
+      <c r="D177" s="0">
+        <v>105.804443359375</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="0" t="s">
+        <v>391</v>
+      </c>
+      <c r="B178" s="0">
+        <v>2</v>
+      </c>
+      <c r="C178" s="0">
+        <v>12</v>
+      </c>
+      <c r="D178" s="0">
+        <v>146.636962890625</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="0" t="s">
+        <v>391</v>
+      </c>
+      <c r="B179" s="0">
+        <v>2</v>
+      </c>
+      <c r="C179" s="0">
+        <v>13</v>
+      </c>
+      <c r="D179" s="0">
+        <v>107.79571533203125</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="0" t="s">
+        <v>391</v>
+      </c>
+      <c r="B180" s="0">
+        <v>2</v>
+      </c>
+      <c r="C180" s="0">
+        <v>14</v>
+      </c>
+      <c r="D180" s="0">
+        <v>101.6924497038126</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="0" t="s">
+        <v>392</v>
+      </c>
+      <c r="B181" s="0">
+        <v>2</v>
+      </c>
+      <c r="C181" s="0">
+        <v>15</v>
+      </c>
+      <c r="D181" s="0">
+        <v>35.9344482421875</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="0" t="s">
+        <v>393</v>
+      </c>
+      <c r="B182" s="0">
+        <v>2</v>
+      </c>
+      <c r="C182" s="0">
+        <v>16</v>
+      </c>
+      <c r="D182" s="0">
+        <v>138.8702392578125</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="0" t="s">
+        <v>393</v>
+      </c>
+      <c r="B183" s="0">
+        <v>2</v>
+      </c>
+      <c r="C183" s="0">
+        <v>17</v>
+      </c>
+      <c r="D183" s="0">
+        <v>84.869384765625</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="0" t="s">
+        <v>393</v>
+      </c>
+      <c r="B184" s="0">
+        <v>2</v>
+      </c>
+      <c r="C184" s="0">
+        <v>18</v>
+      </c>
+      <c r="D184" s="0">
+        <v>80.46722412109375</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="0" t="s">
+        <v>394</v>
+      </c>
+      <c r="B185" s="0">
+        <v>2</v>
+      </c>
+      <c r="C185" s="0">
+        <v>19</v>
+      </c>
+      <c r="D185" s="0">
+        <v>95.52001953125</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="0" t="s">
+        <v>394</v>
+      </c>
+      <c r="B186" s="0">
+        <v>2</v>
+      </c>
+      <c r="C186" s="0">
+        <v>20</v>
+      </c>
+      <c r="D186" s="0">
+        <v>52.978515625</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="0" t="s">
+        <v>395</v>
+      </c>
+      <c r="B187" s="0">
+        <v>2</v>
+      </c>
+      <c r="C187" s="0">
+        <v>21</v>
+      </c>
+      <c r="D187" s="0">
+        <v>40.83251953125</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="0" t="s">
+        <v>396</v>
+      </c>
+      <c r="B188" s="0">
+        <v>2</v>
+      </c>
+      <c r="C188" s="0">
+        <v>22</v>
+      </c>
+      <c r="D188" s="0">
+        <v>151.641845703125</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="0" t="s">
+        <v>396</v>
+      </c>
+      <c r="B189" s="0">
+        <v>2</v>
+      </c>
+      <c r="C189" s="0">
+        <v>23</v>
+      </c>
+      <c r="D189" s="0">
+        <v>321.868896484375</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="0" t="s">
+        <v>396</v>
+      </c>
+      <c r="B190" s="0">
+        <v>2</v>
+      </c>
+      <c r="C190" s="0">
+        <v>24</v>
+      </c>
+      <c r="D190" s="0">
+        <v>115.8294677734375</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="0" t="s">
+        <v>397</v>
+      </c>
+      <c r="B191" s="0">
+        <v>2</v>
+      </c>
+      <c r="C191" s="0">
+        <v>25</v>
+      </c>
+      <c r="D191" s="0">
+        <v>66.879522442817688</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="0" t="s">
+        <v>398</v>
+      </c>
+      <c r="B192" s="0">
+        <v>2</v>
+      </c>
+      <c r="C192" s="0">
+        <v>26</v>
+      </c>
+      <c r="D192" s="0">
+        <v>215.972900390625</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="0" t="s">
+        <v>398</v>
+      </c>
+      <c r="B193" s="0">
+        <v>2</v>
+      </c>
+      <c r="C193" s="0">
+        <v>27</v>
+      </c>
+      <c r="D193" s="0">
+        <v>123.138427734375</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="0" t="s">
+        <v>399</v>
+      </c>
+      <c r="B194" s="0">
+        <v>2</v>
+      </c>
+      <c r="C194" s="0">
+        <v>28</v>
+      </c>
+      <c r="D194" s="0">
+        <v>150.3448486328125</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="0" t="s">
+        <v>400</v>
+      </c>
+      <c r="B195" s="0">
+        <v>2</v>
+      </c>
+      <c r="C195" s="0">
+        <v>29</v>
+      </c>
+      <c r="D195" s="0">
+        <v>156.6162109375</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="0" t="s">
+        <v>401</v>
+      </c>
+      <c r="B196" s="0">
+        <v>2</v>
+      </c>
+      <c r="C196" s="0">
+        <v>30</v>
+      </c>
+      <c r="D196" s="0">
+        <v>68.542980469763279</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="0" t="s">
+        <v>402</v>
+      </c>
+      <c r="B197" s="0">
+        <v>2</v>
+      </c>
+      <c r="C197" s="0">
+        <v>31</v>
+      </c>
+      <c r="D197" s="0">
+        <v>229.9883481413126</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="0" t="s">
+        <v>402</v>
+      </c>
+      <c r="B198" s="0">
+        <v>2</v>
+      </c>
+      <c r="C198" s="0">
+        <v>32</v>
+      </c>
+      <c r="D198" s="0">
+        <v>99.0447998046875</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="0" t="s">
+        <v>403</v>
+      </c>
+      <c r="B199" s="0">
+        <v>2</v>
+      </c>
+      <c r="C199" s="0">
+        <v>33</v>
+      </c>
+      <c r="D199" s="0">
+        <v>112.640380859375</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="0" t="s">
+        <v>403</v>
+      </c>
+      <c r="B200" s="0">
+        <v>2</v>
+      </c>
+      <c r="C200" s="0">
+        <v>34</v>
+      </c>
+      <c r="D200" s="0">
+        <v>145.599365234375</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="0" t="s">
+        <v>404</v>
+      </c>
+      <c r="B201" s="0">
+        <v>2</v>
+      </c>
+      <c r="C201" s="0">
+        <v>35</v>
+      </c>
+      <c r="D201" s="0">
+        <v>137.5732421875</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="0" t="s">
+        <v>405</v>
+      </c>
+      <c r="B202" s="0">
+        <v>2</v>
+      </c>
+      <c r="C202" s="0">
+        <v>36</v>
+      </c>
+      <c r="D202" s="0">
+        <v>104.01153564453125</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="0" t="s">
+        <v>405</v>
+      </c>
+      <c r="B203" s="0">
+        <v>2</v>
+      </c>
+      <c r="C203" s="0">
+        <v>37</v>
+      </c>
+      <c r="D203" s="0">
+        <v>63.1256103515625</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="0" t="s">
+        <v>405</v>
+      </c>
+      <c r="B204" s="0">
+        <v>2</v>
+      </c>
+      <c r="C204" s="0">
+        <v>38</v>
+      </c>
+      <c r="D204" s="0">
+        <v>154.7088623046875</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="0" t="s">
+        <v>405</v>
+      </c>
+      <c r="B205" s="0">
+        <v>2</v>
+      </c>
+      <c r="C205" s="0">
+        <v>39</v>
+      </c>
+      <c r="D205" s="0">
+        <v>97.7630615234375</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="0" t="s">
+        <v>406</v>
+      </c>
+      <c r="B206" s="0">
+        <v>2</v>
+      </c>
+      <c r="C206" s="0">
+        <v>40</v>
+      </c>
+      <c r="D206" s="0">
+        <v>184.295654296875</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="0" t="s">
+        <v>407</v>
+      </c>
+      <c r="B207" s="0">
+        <v>2</v>
+      </c>
+      <c r="C207" s="0">
+        <v>41</v>
+      </c>
+      <c r="D207" s="0">
+        <v>169.54878466948867</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="0" t="s">
+        <v>407</v>
+      </c>
+      <c r="B208" s="0">
+        <v>2</v>
+      </c>
+      <c r="C208" s="0">
+        <v>42</v>
+      </c>
+      <c r="D208" s="0">
+        <v>126.708984375</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="0" t="s">
+        <v>407</v>
+      </c>
+      <c r="B209" s="0">
+        <v>2</v>
+      </c>
+      <c r="C209" s="0">
+        <v>43</v>
+      </c>
+      <c r="D209" s="0">
+        <v>140.89227880910039</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="0" t="s">
+        <v>408</v>
+      </c>
+      <c r="B210" s="0">
+        <v>2</v>
+      </c>
+      <c r="C210" s="0">
+        <v>44</v>
+      </c>
+      <c r="D210" s="0">
+        <v>56.365966796875</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="0" t="s">
+        <v>409</v>
+      </c>
+      <c r="B211" s="0">
+        <v>2</v>
+      </c>
+      <c r="C211" s="0">
+        <v>45</v>
+      </c>
+      <c r="D211" s="0">
+        <v>231.4453125</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="0" t="s">
+        <v>409</v>
+      </c>
+      <c r="B212" s="0">
+        <v>2</v>
+      </c>
+      <c r="C212" s="0">
+        <v>46</v>
+      </c>
+      <c r="D212" s="0">
+        <v>170.166015625</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="0" t="s">
+        <v>409</v>
+      </c>
+      <c r="B213" s="0">
+        <v>2</v>
+      </c>
+      <c r="C213" s="0">
+        <v>47</v>
+      </c>
+      <c r="D213" s="0">
+        <v>121.002197265625</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="0" t="s">
+        <v>409</v>
+      </c>
+      <c r="B214" s="0">
+        <v>2</v>
+      </c>
+      <c r="C214" s="0">
+        <v>48</v>
+      </c>
+      <c r="D214" s="0">
+        <v>194.427490234375</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="0" t="s">
+        <v>409</v>
+      </c>
+      <c r="B215" s="0">
+        <v>2</v>
+      </c>
+      <c r="C215" s="0">
+        <v>49</v>
+      </c>
+      <c r="D215" s="0">
+        <v>158.660888671875</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="0" t="s">
+        <v>409</v>
+      </c>
+      <c r="B216" s="0">
+        <v>2</v>
+      </c>
+      <c r="C216" s="0">
+        <v>50</v>
+      </c>
+      <c r="D216" s="0">
+        <v>135.7269287109375</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="0" t="s">
+        <v>409</v>
+      </c>
+      <c r="B217" s="0">
+        <v>2</v>
+      </c>
+      <c r="C217" s="0">
+        <v>51</v>
+      </c>
+      <c r="D217" s="0">
+        <v>202.5604248046875</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="0" t="s">
+        <v>410</v>
+      </c>
+      <c r="B218" s="0">
+        <v>2</v>
+      </c>
+      <c r="C218" s="0">
+        <v>52</v>
+      </c>
+      <c r="D218" s="0">
+        <v>121.63543701171875</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="0" t="s">
+        <v>411</v>
+      </c>
+      <c r="B219" s="0">
+        <v>2</v>
+      </c>
+      <c r="C219" s="0">
+        <v>53</v>
+      </c>
+      <c r="D219" s="0">
+        <v>186.63787841796875</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="0" t="s">
+        <v>412</v>
+      </c>
+      <c r="B220" s="0">
+        <v>2</v>
+      </c>
+      <c r="C220" s="0">
+        <v>54</v>
+      </c>
+      <c r="D220" s="0">
+        <v>147.1099853515625</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="0" t="s">
+        <v>413</v>
+      </c>
+      <c r="B221" s="0">
+        <v>2</v>
+      </c>
+      <c r="C221" s="0">
+        <v>55</v>
+      </c>
+      <c r="D221" s="0">
+        <v>183.4869384765625</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="0" t="s">
+        <v>414</v>
+      </c>
+      <c r="B222" s="0">
+        <v>2</v>
+      </c>
+      <c r="C222" s="0">
+        <v>56</v>
+      </c>
+      <c r="D222" s="0">
+        <v>205.48248291015625</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="0" t="s">
+        <v>414</v>
+      </c>
+      <c r="B223" s="0">
+        <v>2</v>
+      </c>
+      <c r="C223" s="0">
+        <v>57</v>
+      </c>
+      <c r="D223" s="0">
+        <v>70.13702392578125</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="0" t="s">
+        <v>415</v>
+      </c>
+      <c r="B224" s="0">
+        <v>2</v>
+      </c>
+      <c r="C224" s="0">
+        <v>58</v>
+      </c>
+      <c r="D224" s="0">
+        <v>179.8248291015625</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="0" t="s">
+        <v>416</v>
+      </c>
+      <c r="B225" s="0">
+        <v>2</v>
+      </c>
+      <c r="C225" s="0">
+        <v>59</v>
+      </c>
+      <c r="D225" s="0">
+        <v>35.0341796875</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="0" t="s">
+        <v>416</v>
+      </c>
+      <c r="B226" s="0">
+        <v>2</v>
+      </c>
+      <c r="C226" s="0">
+        <v>60</v>
+      </c>
+      <c r="D226" s="0">
+        <v>48.7823486328125</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="0" t="s">
+        <v>416</v>
+      </c>
+      <c r="B227" s="0">
+        <v>2</v>
+      </c>
+      <c r="C227" s="0">
+        <v>61</v>
+      </c>
+      <c r="D227" s="0">
+        <v>82.35931396484375</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="0" t="s">
+        <v>416</v>
+      </c>
+      <c r="B228" s="0">
+        <v>2</v>
+      </c>
+      <c r="C228" s="0">
+        <v>62</v>
+      </c>
+      <c r="D228" s="0">
+        <v>87.249755859375</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="0" t="s">
+        <v>416</v>
+      </c>
+      <c r="B229" s="0">
+        <v>2</v>
+      </c>
+      <c r="C229" s="0">
+        <v>63</v>
+      </c>
+      <c r="D229" s="0">
+        <v>58.79974365234375</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="0" t="s">
+        <v>416</v>
+      </c>
+      <c r="B230" s="0">
+        <v>2</v>
+      </c>
+      <c r="C230" s="0">
+        <v>64</v>
+      </c>
+      <c r="D230" s="0">
+        <v>49.0264892578125</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="0" t="s">
+        <v>416</v>
+      </c>
+      <c r="B231" s="0">
+        <v>2</v>
+      </c>
+      <c r="C231" s="0">
+        <v>65</v>
+      </c>
+      <c r="D231" s="0">
+        <v>106.3232421875</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="0" t="s">
+        <v>416</v>
+      </c>
+      <c r="B232" s="0">
+        <v>2</v>
+      </c>
+      <c r="C232" s="0">
+        <v>66</v>
+      </c>
+      <c r="D232" s="0">
+        <v>53.802490234375</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="0" t="s">
+        <v>416</v>
+      </c>
+      <c r="B233" s="0">
+        <v>2</v>
+      </c>
+      <c r="C233" s="0">
+        <v>67</v>
+      </c>
+      <c r="D233" s="0">
+        <v>68.145751953125</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="0" t="s">
+        <v>416</v>
+      </c>
+      <c r="B234" s="0">
+        <v>2</v>
+      </c>
+      <c r="C234" s="0">
+        <v>68</v>
+      </c>
+      <c r="D234" s="0">
+        <v>67.49725341796875</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="0" t="s">
+        <v>417</v>
+      </c>
+      <c r="B235" s="0">
+        <v>2</v>
+      </c>
+      <c r="C235" s="0">
+        <v>69</v>
+      </c>
+      <c r="D235" s="0">
+        <v>223.48122461140156</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="0" t="s">
+        <v>417</v>
+      </c>
+      <c r="B236" s="0">
+        <v>2</v>
+      </c>
+      <c r="C236" s="0">
+        <v>70</v>
+      </c>
+      <c r="D236" s="0">
+        <v>112.64826025441289</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="0" t="s">
+        <v>417</v>
+      </c>
+      <c r="B237" s="0">
+        <v>2</v>
+      </c>
+      <c r="C237" s="0">
+        <v>71</v>
+      </c>
+      <c r="D237" s="0">
+        <v>59.539794921875</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="0" t="s">
+        <v>417</v>
+      </c>
+      <c r="B238" s="0">
+        <v>2</v>
+      </c>
+      <c r="C238" s="0">
+        <v>72</v>
+      </c>
+      <c r="D238" s="0">
+        <v>80.2001953125</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="0" t="s">
+        <v>417</v>
+      </c>
+      <c r="B239" s="0">
+        <v>2</v>
+      </c>
+      <c r="C239" s="0">
+        <v>73</v>
+      </c>
+      <c r="D239" s="0">
+        <v>108.54339599609375</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="0" t="s">
+        <v>417</v>
+      </c>
+      <c r="B240" s="0">
+        <v>2</v>
+      </c>
+      <c r="C240" s="0">
+        <v>74</v>
+      </c>
+      <c r="D240" s="0">
+        <v>96.772240236401558</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="0" t="s">
+        <v>417</v>
+      </c>
+      <c r="B241" s="0">
+        <v>2</v>
+      </c>
+      <c r="C241" s="0">
+        <v>75</v>
+      </c>
+      <c r="D241" s="0">
+        <v>151.81044238433242</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="0" t="s">
+        <v>418</v>
+      </c>
+      <c r="B242" s="0">
+        <v>2</v>
+      </c>
+      <c r="C242" s="0">
+        <v>76</v>
+      </c>
+      <c r="D242" s="0">
+        <v>125.640869140625</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="0" t="s">
+        <v>418</v>
+      </c>
+      <c r="B243" s="0">
+        <v>2</v>
+      </c>
+      <c r="C243" s="0">
+        <v>77</v>
+      </c>
+      <c r="D243" s="0">
+        <v>28.74755859375</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="0" t="s">
+        <v>419</v>
+      </c>
+      <c r="B244" s="0">
+        <v>2</v>
+      </c>
+      <c r="C244" s="0">
+        <v>78</v>
+      </c>
+      <c r="D244" s="0">
+        <v>150.18488134816289</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="0" t="s">
+        <v>420</v>
+      </c>
+      <c r="B245" s="0">
+        <v>2</v>
+      </c>
+      <c r="C245" s="0">
+        <v>79</v>
+      </c>
+      <c r="D245" s="0">
+        <v>177.13953222706914</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="0" t="s">
+        <v>421</v>
+      </c>
+      <c r="B246" s="0">
+        <v>2</v>
+      </c>
+      <c r="C246" s="0">
+        <v>80</v>
+      </c>
+      <c r="D246" s="0">
+        <v>169.98291015625</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" s="0" t="s">
+        <v>421</v>
+      </c>
+      <c r="B247" s="0">
+        <v>2</v>
+      </c>
+      <c r="C247" s="0">
+        <v>81</v>
+      </c>
+      <c r="D247" s="0">
+        <v>39.520263671875</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" s="0" t="s">
+        <v>422</v>
+      </c>
+      <c r="B248" s="0">
+        <v>2</v>
+      </c>
+      <c r="C248" s="0">
+        <v>82</v>
+      </c>
+      <c r="D248" s="0">
+        <v>137.664794921875</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" s="0" t="s">
+        <v>423</v>
+      </c>
+      <c r="B249" s="0">
+        <v>2</v>
+      </c>
+      <c r="C249" s="0">
+        <v>83</v>
+      </c>
+      <c r="D249" s="0">
+        <v>75.3021240234375</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" s="0" t="s">
+        <v>423</v>
+      </c>
+      <c r="B250" s="0">
+        <v>2</v>
+      </c>
+      <c r="C250" s="0">
+        <v>84</v>
+      </c>
+      <c r="D250" s="0">
+        <v>126.15966796875</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" s="0" t="s">
+        <v>424</v>
+      </c>
+      <c r="B251" s="0">
+        <v>2</v>
+      </c>
+      <c r="C251" s="0">
+        <v>85</v>
+      </c>
+      <c r="D251" s="0">
+        <v>108.489990234375</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" s="0" t="s">
+        <v>425</v>
+      </c>
+      <c r="B252" s="0">
+        <v>2</v>
+      </c>
+      <c r="C252" s="0">
+        <v>86</v>
+      </c>
+      <c r="D252" s="0">
+        <v>120.50628662109375</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" s="0" t="s">
+        <v>425</v>
+      </c>
+      <c r="B253" s="0">
+        <v>2</v>
+      </c>
+      <c r="C253" s="0">
+        <v>87</v>
+      </c>
+      <c r="D253" s="0">
+        <v>126.40380859375</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" s="0" t="s">
+        <v>425</v>
+      </c>
+      <c r="B254" s="0">
+        <v>2</v>
+      </c>
+      <c r="C254" s="0">
+        <v>88</v>
+      </c>
+      <c r="D254" s="0">
+        <v>79.315185546875</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" s="0" t="s">
+        <v>425</v>
+      </c>
+      <c r="B255" s="0">
+        <v>2</v>
+      </c>
+      <c r="C255" s="0">
+        <v>89</v>
+      </c>
+      <c r="D255" s="0">
+        <v>179.901123046875</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" s="0" t="s">
+        <v>425</v>
+      </c>
+      <c r="B256" s="0">
+        <v>2</v>
+      </c>
+      <c r="C256" s="0">
+        <v>90</v>
+      </c>
+      <c r="D256" s="0">
+        <v>132.904052734375</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" s="0" t="s">
+        <v>425</v>
+      </c>
+      <c r="B257" s="0">
+        <v>2</v>
+      </c>
+      <c r="C257" s="0">
+        <v>91</v>
+      </c>
+      <c r="D257" s="0">
+        <v>234.9853515625</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" s="0" t="s">
+        <v>426</v>
+      </c>
+      <c r="B258" s="0">
+        <v>2</v>
+      </c>
+      <c r="C258" s="0">
+        <v>92</v>
+      </c>
+      <c r="D258" s="0">
+        <v>78.2012939453125</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" s="0" t="s">
+        <v>426</v>
+      </c>
+      <c r="B259" s="0">
+        <v>2</v>
+      </c>
+      <c r="C259" s="0">
+        <v>93</v>
+      </c>
+      <c r="D259" s="0">
+        <v>115.29541015625</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" s="0" t="s">
+        <v>426</v>
+      </c>
+      <c r="B260" s="0">
+        <v>2</v>
+      </c>
+      <c r="C260" s="0">
+        <v>94</v>
+      </c>
+      <c r="D260" s="0">
+        <v>163.8031005859375</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" s="0" t="s">
+        <v>427</v>
+      </c>
+      <c r="B261" s="0">
+        <v>2</v>
+      </c>
+      <c r="C261" s="0">
+        <v>95</v>
+      </c>
+      <c r="D261" s="0">
+        <v>212.7838134765625</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" s="0" t="s">
+        <v>428</v>
+      </c>
+      <c r="B262" s="0">
+        <v>2</v>
+      </c>
+      <c r="C262" s="0">
+        <v>96</v>
+      </c>
+      <c r="D262" s="0">
+        <v>182.2509765625</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" s="0" t="s">
+        <v>428</v>
+      </c>
+      <c r="B263" s="0">
+        <v>2</v>
+      </c>
+      <c r="C263" s="0">
+        <v>97</v>
+      </c>
+      <c r="D263" s="0">
+        <v>76.004528313875198</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" s="0" t="s">
+        <v>428</v>
+      </c>
+      <c r="B264" s="0">
+        <v>2</v>
+      </c>
+      <c r="C264" s="0">
+        <v>98</v>
+      </c>
+      <c r="D264" s="0">
+        <v>83.404541015625</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" s="0" t="s">
+        <v>428</v>
+      </c>
+      <c r="B265" s="0">
+        <v>2</v>
+      </c>
+      <c r="C265" s="0">
+        <v>99</v>
+      </c>
+      <c r="D265" s="0">
+        <v>99.4720458984375</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" s="0" t="s">
+        <v>429</v>
+      </c>
+      <c r="B266" s="0">
+        <v>2</v>
+      </c>
+      <c r="C266" s="0">
+        <v>100</v>
+      </c>
+      <c r="D266" s="0">
+        <v>149.77264404296875</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" s="0" t="s">
+        <v>430</v>
+      </c>
+      <c r="B267" s="0">
+        <v>2</v>
+      </c>
+      <c r="C267" s="0">
+        <v>101</v>
+      </c>
+      <c r="D267" s="0">
+        <v>86.60888671875</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" s="0" t="s">
+        <v>430</v>
+      </c>
+      <c r="B268" s="0">
+        <v>2</v>
+      </c>
+      <c r="C268" s="0">
+        <v>102</v>
+      </c>
+      <c r="D268" s="0">
+        <v>174.530029296875</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" s="0" t="s">
+        <v>430</v>
+      </c>
+      <c r="B269" s="0">
+        <v>2</v>
+      </c>
+      <c r="C269" s="0">
+        <v>103</v>
+      </c>
+      <c r="D269" s="0">
+        <v>124.54986572265625</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" s="0" t="s">
+        <v>431</v>
+      </c>
+      <c r="B270" s="0">
+        <v>2</v>
+      </c>
+      <c r="C270" s="0">
+        <v>104</v>
+      </c>
+      <c r="D270" s="0">
+        <v>105.32379150390625</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" s="0" t="s">
+        <v>431</v>
+      </c>
+      <c r="B271" s="0">
+        <v>2</v>
+      </c>
+      <c r="C271" s="0">
+        <v>105</v>
+      </c>
+      <c r="D271" s="0">
+        <v>180.07659912109375</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" s="0" t="s">
+        <v>431</v>
+      </c>
+      <c r="B272" s="0">
+        <v>2</v>
+      </c>
+      <c r="C272" s="0">
+        <v>106</v>
+      </c>
+      <c r="D272" s="0">
+        <v>125.701904296875</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" s="0" t="s">
+        <v>431</v>
+      </c>
+      <c r="B273" s="0">
+        <v>2</v>
+      </c>
+      <c r="C273" s="0">
+        <v>107</v>
+      </c>
+      <c r="D273" s="0">
+        <v>152.1453857421875</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" s="0" t="s">
+        <v>431</v>
+      </c>
+      <c r="B274" s="0">
+        <v>2</v>
+      </c>
+      <c r="C274" s="0">
+        <v>108</v>
+      </c>
+      <c r="D274" s="0">
+        <v>91.766357421875</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" s="0" t="s">
+        <v>432</v>
+      </c>
+      <c r="B275" s="0">
+        <v>2</v>
+      </c>
+      <c r="C275" s="0">
+        <v>109</v>
+      </c>
+      <c r="D275" s="0">
+        <v>115.142822265625</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" s="0" t="s">
+        <v>432</v>
+      </c>
+      <c r="B276" s="0">
+        <v>2</v>
+      </c>
+      <c r="C276" s="0">
+        <v>110</v>
+      </c>
+      <c r="D276" s="0">
+        <v>205.810546875</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" s="0" t="s">
+        <v>432</v>
+      </c>
+      <c r="B277" s="0">
+        <v>2</v>
+      </c>
+      <c r="C277" s="0">
+        <v>111</v>
+      </c>
+      <c r="D277" s="0">
+        <v>187.6983642578125</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" s="0" t="s">
+        <v>432</v>
+      </c>
+      <c r="B278" s="0">
+        <v>2</v>
+      </c>
+      <c r="C278" s="0">
+        <v>112</v>
+      </c>
+      <c r="D278" s="0">
+        <v>116.485595703125</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" s="0" t="s">
+        <v>432</v>
+      </c>
+      <c r="B279" s="0">
+        <v>2</v>
+      </c>
+      <c r="C279" s="0">
+        <v>113</v>
+      </c>
+      <c r="D279" s="0">
+        <v>125.274658203125</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" s="0" t="s">
+        <v>432</v>
+      </c>
+      <c r="B280" s="0">
+        <v>2</v>
+      </c>
+      <c r="C280" s="0">
+        <v>114</v>
+      </c>
+      <c r="D280" s="0">
+        <v>225.2655029296875</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" s="0" t="s">
+        <v>432</v>
+      </c>
+      <c r="B281" s="0">
+        <v>2</v>
+      </c>
+      <c r="C281" s="0">
+        <v>115</v>
+      </c>
+      <c r="D281" s="0">
+        <v>111.6485595703125</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" s="0" t="s">
+        <v>432</v>
+      </c>
+      <c r="B282" s="0">
+        <v>2</v>
+      </c>
+      <c r="C282" s="0">
+        <v>116</v>
+      </c>
+      <c r="D282" s="0">
+        <v>157.0587158203125</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" s="0" t="s">
+        <v>432</v>
+      </c>
+      <c r="B283" s="0">
+        <v>2</v>
+      </c>
+      <c r="C283" s="0">
+        <v>117</v>
+      </c>
+      <c r="D283" s="0">
+        <v>86.6546630859375</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" s="0" t="s">
+        <v>432</v>
+      </c>
+      <c r="B284" s="0">
+        <v>2</v>
+      </c>
+      <c r="C284" s="0">
+        <v>118</v>
+      </c>
+      <c r="D284" s="0">
+        <v>83.282470703125</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" s="0" t="s">
+        <v>433</v>
+      </c>
+      <c r="B285" s="0">
+        <v>2</v>
+      </c>
+      <c r="C285" s="0">
+        <v>119</v>
+      </c>
+      <c r="D285" s="0">
+        <v>144.34814453125</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" s="0" t="s">
+        <v>434</v>
+      </c>
+      <c r="B286" s="0">
+        <v>2</v>
+      </c>
+      <c r="C286" s="0">
+        <v>120</v>
+      </c>
+      <c r="D286" s="0">
+        <v>120.7275390625</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" s="0" t="s">
+        <v>434</v>
+      </c>
+      <c r="B287" s="0">
+        <v>2</v>
+      </c>
+      <c r="C287" s="0">
+        <v>121</v>
+      </c>
+      <c r="D287" s="0">
+        <v>179.7943115234375</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" s="0" t="s">
+        <v>435</v>
+      </c>
+      <c r="B288" s="0">
+        <v>2</v>
+      </c>
+      <c r="C288" s="0">
+        <v>122</v>
+      </c>
+      <c r="D288" s="0">
+        <v>107.391357421875</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" s="0" t="s">
+        <v>436</v>
+      </c>
+      <c r="B289" s="0">
+        <v>2</v>
+      </c>
+      <c r="C289" s="0">
+        <v>123</v>
+      </c>
+      <c r="D289" s="0">
+        <v>138.74078956246376</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" s="0" t="s">
+        <v>436</v>
+      </c>
+      <c r="B290" s="0">
+        <v>2</v>
+      </c>
+      <c r="C290" s="0">
+        <v>124</v>
+      </c>
+      <c r="D290" s="0">
+        <v>193.939208984375</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" s="0" t="s">
+        <v>437</v>
+      </c>
+      <c r="B291" s="0">
+        <v>2</v>
+      </c>
+      <c r="C291" s="0">
+        <v>125</v>
+      </c>
+      <c r="D291" s="0">
+        <v>230.94202246097848</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" s="0" t="s">
+        <v>437</v>
+      </c>
+      <c r="B292" s="0">
+        <v>2</v>
+      </c>
+      <c r="C292" s="0">
+        <v>126</v>
+      </c>
+      <c r="D292" s="0">
+        <v>230.0567626953125</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" s="0" t="s">
+        <v>437</v>
+      </c>
+      <c r="B293" s="0">
+        <v>2</v>
+      </c>
+      <c r="C293" s="0">
+        <v>127</v>
+      </c>
+      <c r="D293" s="0">
+        <v>226.44830908207223</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" s="0" t="s">
+        <v>437</v>
+      </c>
+      <c r="B294" s="0">
+        <v>2</v>
+      </c>
+      <c r="C294" s="0">
+        <v>128</v>
+      </c>
+      <c r="D294" s="0">
+        <v>124.57275390625</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" s="0" t="s">
+        <v>437</v>
+      </c>
+      <c r="B295" s="0">
+        <v>2</v>
+      </c>
+      <c r="C295" s="0">
+        <v>129</v>
+      </c>
+      <c r="D295" s="0">
+        <v>139.5416259765625</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" s="0" t="s">
+        <v>437</v>
+      </c>
+      <c r="B296" s="0">
+        <v>2</v>
+      </c>
+      <c r="C296" s="0">
+        <v>130</v>
+      </c>
+      <c r="D296" s="0">
+        <v>92.82684326171875</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" s="0" t="s">
+        <v>438</v>
+      </c>
+      <c r="B297" s="0">
+        <v>2</v>
+      </c>
+      <c r="C297" s="0">
+        <v>131</v>
+      </c>
+      <c r="D297" s="0">
+        <v>24.810791015625</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" s="0" t="s">
+        <v>439</v>
+      </c>
+      <c r="B298" s="0">
+        <v>2</v>
+      </c>
+      <c r="C298" s="0">
+        <v>132</v>
+      </c>
+      <c r="D298" s="0">
+        <v>89.9505615234375</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" s="0" t="s">
+        <v>439</v>
+      </c>
+      <c r="B299" s="0">
+        <v>2</v>
+      </c>
+      <c r="C299" s="0">
+        <v>133</v>
+      </c>
+      <c r="D299" s="0">
+        <v>110.96954345703125</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" s="0" t="s">
+        <v>439</v>
+      </c>
+      <c r="B300" s="0">
+        <v>2</v>
+      </c>
+      <c r="C300" s="0">
+        <v>134</v>
+      </c>
+      <c r="D300" s="0">
+        <v>166.1376953125</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" s="0" t="s">
+        <v>440</v>
+      </c>
+      <c r="B301" s="0">
+        <v>2</v>
+      </c>
+      <c r="C301" s="0">
+        <v>135</v>
+      </c>
+      <c r="D301" s="0">
+        <v>217.864990234375</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" s="0" t="s">
+        <v>440</v>
+      </c>
+      <c r="B302" s="0">
+        <v>2</v>
+      </c>
+      <c r="C302" s="0">
+        <v>136</v>
+      </c>
+      <c r="D302" s="0">
+        <v>305.24444580078125</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" s="0" t="s">
+        <v>441</v>
+      </c>
+      <c r="B303" s="0">
+        <v>2</v>
+      </c>
+      <c r="C303" s="0">
+        <v>137</v>
+      </c>
+      <c r="D303" s="0">
+        <v>75.042724609375</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" s="0" t="s">
+        <v>442</v>
+      </c>
+      <c r="B304" s="0">
+        <v>2</v>
+      </c>
+      <c r="C304" s="0">
+        <v>138</v>
+      </c>
+      <c r="D304" s="0">
+        <v>73.059582032263279</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" s="0" t="s">
+        <v>442</v>
+      </c>
+      <c r="B305" s="0">
+        <v>2</v>
+      </c>
+      <c r="C305" s="0">
+        <v>139</v>
+      </c>
+      <c r="D305" s="0">
+        <v>198.96722998097539</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" s="0" t="s">
+        <v>442</v>
+      </c>
+      <c r="B306" s="0">
+        <v>2</v>
+      </c>
+      <c r="C306" s="0">
+        <v>140</v>
+      </c>
+      <c r="D306" s="0">
+        <v>135.56671142578125</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" s="0" t="s">
+        <v>442</v>
+      </c>
+      <c r="B307" s="0">
+        <v>2</v>
+      </c>
+      <c r="C307" s="0">
+        <v>141</v>
+      </c>
+      <c r="D307" s="0">
+        <v>203.4149169921875</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" s="0" t="s">
+        <v>442</v>
+      </c>
+      <c r="B308" s="0">
+        <v>2</v>
+      </c>
+      <c r="C308" s="0">
+        <v>142</v>
+      </c>
+      <c r="D308" s="0">
+        <v>186.70654296875</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" s="0" t="s">
+        <v>442</v>
+      </c>
+      <c r="B309" s="0">
+        <v>2</v>
+      </c>
+      <c r="C309" s="0">
+        <v>143</v>
+      </c>
+      <c r="D309" s="0">
+        <v>206.20752539113164</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" s="0" t="s">
+        <v>442</v>
+      </c>
+      <c r="B310" s="0">
+        <v>2</v>
+      </c>
+      <c r="C310" s="0">
+        <v>144</v>
+      </c>
+      <c r="D310" s="0">
+        <v>176.1474609375</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" s="0" t="s">
+        <v>442</v>
+      </c>
+      <c r="B311" s="0">
+        <v>2</v>
+      </c>
+      <c r="C311" s="0">
+        <v>145</v>
+      </c>
+      <c r="D311" s="0">
+        <v>69.0765380859375</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" s="0" t="s">
+        <v>442</v>
+      </c>
+      <c r="B312" s="0">
+        <v>2</v>
+      </c>
+      <c r="C312" s="0">
+        <v>146</v>
+      </c>
+      <c r="D312" s="0">
+        <v>54.83245849609375</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" s="0" t="s">
+        <v>442</v>
+      </c>
+      <c r="B313" s="0">
+        <v>2</v>
+      </c>
+      <c r="C313" s="0">
+        <v>147</v>
+      </c>
+      <c r="D313" s="0">
+        <v>103.23333740234375</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" s="0" t="s">
+        <v>443</v>
+      </c>
+      <c r="B314" s="0">
+        <v>2</v>
+      </c>
+      <c r="C314" s="0">
+        <v>148</v>
+      </c>
+      <c r="D314" s="0">
+        <v>76.873779296875</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" s="0" t="s">
+        <v>443</v>
+      </c>
+      <c r="B315" s="0">
+        <v>2</v>
+      </c>
+      <c r="C315" s="0">
+        <v>149</v>
+      </c>
+      <c r="D315" s="0">
+        <v>104.3243408203125</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" s="0" t="s">
+        <v>443</v>
+      </c>
+      <c r="B316" s="0">
+        <v>2</v>
+      </c>
+      <c r="C316" s="0">
+        <v>150</v>
+      </c>
+      <c r="D316" s="0">
+        <v>196.98333740234375</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" s="0" t="s">
+        <v>444</v>
+      </c>
+      <c r="B317" s="0">
+        <v>2</v>
+      </c>
+      <c r="C317" s="0">
+        <v>151</v>
+      </c>
+      <c r="D317" s="0">
+        <v>69.22149658203125</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" s="0" t="s">
+        <v>445</v>
+      </c>
+      <c r="B318" s="0">
+        <v>2</v>
+      </c>
+      <c r="C318" s="0">
+        <v>152</v>
+      </c>
+      <c r="D318" s="0">
+        <v>266.2200927734375</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" s="0" t="s">
+        <v>446</v>
+      </c>
+      <c r="B319" s="0">
+        <v>2</v>
+      </c>
+      <c r="C319" s="0">
+        <v>153</v>
+      </c>
+      <c r="D319" s="0">
+        <v>133.6669921875</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" s="0" t="s">
+        <v>447</v>
+      </c>
+      <c r="B320" s="0">
+        <v>2</v>
+      </c>
+      <c r="C320" s="0">
+        <v>154</v>
+      </c>
+      <c r="D320" s="0">
+        <v>162.3687744140625</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" s="0" t="s">
+        <v>447</v>
+      </c>
+      <c r="B321" s="0">
+        <v>2</v>
+      </c>
+      <c r="C321" s="0">
+        <v>155</v>
+      </c>
+      <c r="D321" s="0">
+        <v>117.13409423828125</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" s="0" t="s">
+        <v>448</v>
+      </c>
+      <c r="B322" s="0">
+        <v>2</v>
+      </c>
+      <c r="C322" s="0">
+        <v>156</v>
+      </c>
+      <c r="D322" s="0">
+        <v>154.78515625</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" s="0" t="s">
+        <v>448</v>
+      </c>
+      <c r="B323" s="0">
+        <v>2</v>
+      </c>
+      <c r="C323" s="0">
+        <v>157</v>
+      </c>
+      <c r="D323" s="0">
+        <v>176.73492431640625</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" s="0" t="s">
+        <v>448</v>
+      </c>
+      <c r="B324" s="0">
+        <v>2</v>
+      </c>
+      <c r="C324" s="0">
+        <v>158</v>
+      </c>
+      <c r="D324" s="0">
+        <v>157.0892333984375</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" s="0" t="s">
+        <v>448</v>
+      </c>
+      <c r="B325" s="0">
+        <v>2</v>
+      </c>
+      <c r="C325" s="0">
+        <v>159</v>
+      </c>
+      <c r="D325" s="0">
+        <v>77.79693603515625</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" s="0" t="s">
+        <v>448</v>
+      </c>
+      <c r="B326" s="0">
+        <v>2</v>
+      </c>
+      <c r="C326" s="0">
+        <v>160</v>
+      </c>
+      <c r="D326" s="0">
+        <v>142.120361328125</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" s="0" t="s">
+        <v>448</v>
+      </c>
+      <c r="B327" s="0">
+        <v>2</v>
+      </c>
+      <c r="C327" s="0">
+        <v>161</v>
+      </c>
+      <c r="D327" s="0">
+        <v>134.8876953125</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" s="0" t="s">
+        <v>448</v>
+      </c>
+      <c r="B328" s="0">
+        <v>2</v>
+      </c>
+      <c r="C328" s="0">
+        <v>162</v>
+      </c>
+      <c r="D328" s="0">
+        <v>78.2470703125</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" s="0" t="s">
+        <v>449</v>
+      </c>
+      <c r="B329" s="0">
+        <v>2</v>
+      </c>
+      <c r="C329" s="0">
+        <v>163</v>
+      </c>
+      <c r="D329" s="0">
+        <v>99.3194580078125</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" s="0" t="s">
+        <v>450</v>
+      </c>
+      <c r="B330" s="0">
+        <v>2</v>
+      </c>
+      <c r="C330" s="0">
+        <v>164</v>
+      </c>
+      <c r="D330" s="0">
+        <v>76.263427734375</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" s="0" t="s">
+        <v>450</v>
+      </c>
+      <c r="B331" s="0">
+        <v>2</v>
+      </c>
+      <c r="C331" s="0">
+        <v>165</v>
+      </c>
+      <c r="D331" s="0">
+        <v>83.404541015625</v>
       </c>
     </row>
   </sheetData>
